--- a/player_stats.xlsx
+++ b/player_stats.xlsx
@@ -427,10 +427,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.302</v>
+        <v>4.431</v>
       </c>
       <c r="E2">
-        <v>13.94700139470014</v>
+        <v>13.54096140825999</v>
       </c>
     </row>
   </sheetData>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>172.68</v>
+        <v>175.44</v>
       </c>
       <c r="C2">
-        <v>142.4556688938703</v>
+        <v>142.8733929043473</v>
       </c>
       <c r="D2">
-        <v>13.79</v>
+        <v>13.451</v>
       </c>
       <c r="E2">
-        <v>12.5221174764322</v>
+        <v>13.04289643892647</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -485,16 +485,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>176.82</v>
+        <v>178.98</v>
       </c>
       <c r="C3">
-        <v>72.40364355472728</v>
+        <v>71.61675502282968</v>
       </c>
       <c r="D3">
-        <v>12.766</v>
+        <v>13.242</v>
       </c>
       <c r="E3">
-        <v>13.85085383048723</v>
+        <v>13.51608518350702</v>
       </c>
     </row>
   </sheetData>
@@ -532,16 +532,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>482.88</v>
+        <v>541.02</v>
       </c>
       <c r="C2">
-        <v>442.6345056590143</v>
+        <v>548.8498515987774</v>
       </c>
       <c r="D2">
-        <v>48.738</v>
+        <v>46.747</v>
       </c>
       <c r="E2">
-        <v>9.907669580204358</v>
+        <v>11.57336299655593</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>496.2</v>
+        <v>484.8</v>
       </c>
       <c r="C3">
-        <v>378.7188403024069</v>
+        <v>366.9705165268732</v>
       </c>
       <c r="D3">
-        <v>38.401</v>
+        <v>40.242</v>
       </c>
       <c r="E3">
-        <v>12.92153850160152</v>
+        <v>12.04711495452512</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -566,16 +566,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>559.6799999999999</v>
+        <v>563.9400000000001</v>
       </c>
       <c r="C4">
-        <v>235.0316948839028</v>
+        <v>246.0277959906156</v>
       </c>
       <c r="D4">
-        <v>45.028</v>
+        <v>44.821</v>
       </c>
       <c r="E4">
-        <v>12.42959936039797</v>
+        <v>12.58204859329332</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -583,16 +583,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>555.78</v>
+        <v>537.72</v>
       </c>
       <c r="C5">
-        <v>213.8882689630265</v>
+        <v>216.2711298347516</v>
       </c>
       <c r="D5">
-        <v>41.39</v>
+        <v>45</v>
       </c>
       <c r="E5">
-        <v>13.4278811307079</v>
+        <v>11.94933333333333</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -625,6 +625,142 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1472.52</v>
+      </c>
+      <c r="C2">
+        <v>1428.602691303639</v>
+      </c>
+      <c r="D2">
+        <v>146.042</v>
+      </c>
+      <c r="E2">
+        <v>10.08285287793922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1385.94</v>
+      </c>
+      <c r="C3">
+        <v>1303.778323335681</v>
+      </c>
+      <c r="D3">
+        <v>125.116</v>
+      </c>
+      <c r="E3">
+        <v>11.07724032098213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1413.24</v>
+      </c>
+      <c r="C4">
+        <v>1027.859865156724</v>
+      </c>
+      <c r="D4">
+        <v>123.917</v>
+      </c>
+      <c r="E4">
+        <v>11.40473058579533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1424.58</v>
+      </c>
+      <c r="C5">
+        <v>1097.916309925306</v>
+      </c>
+      <c r="D5">
+        <v>117.35</v>
+      </c>
+      <c r="E5">
+        <v>12.13958244567533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1583.88</v>
+      </c>
+      <c r="C6">
+        <v>735.9946641110927</v>
+      </c>
+      <c r="D6">
+        <v>139.673</v>
+      </c>
+      <c r="E6">
+        <v>11.33991537376587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1551.16</v>
+      </c>
+      <c r="C7">
+        <v>647.9563676668361</v>
+      </c>
+      <c r="D7">
+        <v>126.586</v>
+      </c>
+      <c r="E7">
+        <v>12.2538037381701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1584.72</v>
+      </c>
+      <c r="C8">
+        <v>622.8805034675592</v>
+      </c>
+      <c r="D8">
+        <v>129.587</v>
+      </c>
+      <c r="E8">
+        <v>12.22900445260713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1559.06</v>
+      </c>
+      <c r="C9">
+        <v>603.0160167027075</v>
+      </c>
+      <c r="D9">
+        <v>127.65</v>
+      </c>
+      <c r="E9">
+        <v>12.2135526831179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -632,7 +768,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -655,6 +791,278 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4046.28</v>
+      </c>
+      <c r="C2">
+        <v>3979.008992399992</v>
+      </c>
+      <c r="D2">
+        <v>364.966</v>
+      </c>
+      <c r="E2">
+        <v>11.08673136675745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3813.18</v>
+      </c>
+      <c r="C3">
+        <v>3737.22810216342</v>
+      </c>
+      <c r="D3">
+        <v>301.441</v>
+      </c>
+      <c r="E3">
+        <v>12.64983860855026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4206.24</v>
+      </c>
+      <c r="C4">
+        <v>3773.936653204449</v>
+      </c>
+      <c r="D4">
+        <v>303.827</v>
+      </c>
+      <c r="E4">
+        <v>13.84419422895266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3897.3</v>
+      </c>
+      <c r="C5">
+        <v>3651.379836445395</v>
+      </c>
+      <c r="D5">
+        <v>300.95</v>
+      </c>
+      <c r="E5">
+        <v>12.94999169297226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4044.48</v>
+      </c>
+      <c r="C6">
+        <v>3008.905304192872</v>
+      </c>
+      <c r="D6">
+        <v>302.408</v>
+      </c>
+      <c r="E6">
+        <v>13.37424935848258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3990.56</v>
+      </c>
+      <c r="C7">
+        <v>3122.26617801878</v>
+      </c>
+      <c r="D7">
+        <v>297.03</v>
+      </c>
+      <c r="E7">
+        <v>13.43487189846144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3965.12</v>
+      </c>
+      <c r="C8">
+        <v>3071.635164794152</v>
+      </c>
+      <c r="D8">
+        <v>298.523</v>
+      </c>
+      <c r="E8">
+        <v>13.28246064792327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4070.88</v>
+      </c>
+      <c r="C9">
+        <v>3246.917680755088</v>
+      </c>
+      <c r="D9">
+        <v>294.2</v>
+      </c>
+      <c r="E9">
+        <v>13.83711760707002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3524.86</v>
+      </c>
+      <c r="C10">
+        <v>1715.383100184912</v>
+      </c>
+      <c r="D10">
+        <v>333.381</v>
+      </c>
+      <c r="E10">
+        <v>10.57306805126867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3428.4</v>
+      </c>
+      <c r="C11">
+        <v>1630.595670299661</v>
+      </c>
+      <c r="D11">
+        <v>308.793</v>
+      </c>
+      <c r="E11">
+        <v>11.1025832839475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3578.36</v>
+      </c>
+      <c r="C12">
+        <v>1453.679369874939</v>
+      </c>
+      <c r="D12">
+        <v>315.241</v>
+      </c>
+      <c r="E12">
+        <v>11.35118845581635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3562.4</v>
+      </c>
+      <c r="C13">
+        <v>1453.744626817241</v>
+      </c>
+      <c r="D13">
+        <v>316.15</v>
+      </c>
+      <c r="E13">
+        <v>11.26806895461015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3561.78</v>
+      </c>
+      <c r="C14">
+        <v>1377.668331493469</v>
+      </c>
+      <c r="D14">
+        <v>325.113</v>
+      </c>
+      <c r="E14">
+        <v>10.95551392900315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3649.68</v>
+      </c>
+      <c r="C15">
+        <v>1285.199088701824</v>
+      </c>
+      <c r="D15">
+        <v>312.136</v>
+      </c>
+      <c r="E15">
+        <v>11.69259553527949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3627.04</v>
+      </c>
+      <c r="C16">
+        <v>1276.433170361849</v>
+      </c>
+      <c r="D16">
+        <v>317.073</v>
+      </c>
+      <c r="E16">
+        <v>11.43913231337894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3547.52</v>
+      </c>
+      <c r="C17">
+        <v>1278.03515194223</v>
+      </c>
+      <c r="D17">
+        <v>315.3</v>
+      </c>
+      <c r="E17">
+        <v>11.25125277513479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -662,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -685,6 +1093,550 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9791.040000000001</v>
+      </c>
+      <c r="C2">
+        <v>7241.411942321745</v>
+      </c>
+      <c r="D2">
+        <v>759.2619999999999</v>
+      </c>
+      <c r="E2">
+        <v>12.89546954806115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10129.44</v>
+      </c>
+      <c r="C3">
+        <v>9358.648176227163</v>
+      </c>
+      <c r="D3">
+        <v>714.275</v>
+      </c>
+      <c r="E3">
+        <v>14.18142872143082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10161.24</v>
+      </c>
+      <c r="C4">
+        <v>9962.269383147597</v>
+      </c>
+      <c r="D4">
+        <v>736.381</v>
+      </c>
+      <c r="E4">
+        <v>13.79888943359484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10926.96</v>
+      </c>
+      <c r="C5">
+        <v>10760.79459698028</v>
+      </c>
+      <c r="D5">
+        <v>722.7</v>
+      </c>
+      <c r="E5">
+        <v>15.11963470319635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>11723.08</v>
+      </c>
+      <c r="C6">
+        <v>10423.79835346022</v>
+      </c>
+      <c r="D6">
+        <v>753.343</v>
+      </c>
+      <c r="E6">
+        <v>15.56141093764726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10940.7</v>
+      </c>
+      <c r="C7">
+        <v>9919.437923088182</v>
+      </c>
+      <c r="D7">
+        <v>703.497</v>
+      </c>
+      <c r="E7">
+        <v>15.55187868604984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>11464.3</v>
+      </c>
+      <c r="C8">
+        <v>10253.45363816505</v>
+      </c>
+      <c r="D8">
+        <v>736.258</v>
+      </c>
+      <c r="E8">
+        <v>15.57103624001369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>11049.58</v>
+      </c>
+      <c r="C9">
+        <v>9679.825981059783</v>
+      </c>
+      <c r="D9">
+        <v>724.5</v>
+      </c>
+      <c r="E9">
+        <v>15.25131815044858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8612.200000000001</v>
+      </c>
+      <c r="C10">
+        <v>7010.064989713005</v>
+      </c>
+      <c r="D10">
+        <v>743.62</v>
+      </c>
+      <c r="E10">
+        <v>11.58145289260644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>8259.559999999999</v>
+      </c>
+      <c r="C11">
+        <v>6101.221042250477</v>
+      </c>
+      <c r="D11">
+        <v>699.3150000000001</v>
+      </c>
+      <c r="E11">
+        <v>11.8109292664965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>8709.860000000001</v>
+      </c>
+      <c r="C12">
+        <v>6302.107772832832</v>
+      </c>
+      <c r="D12">
+        <v>720.33</v>
+      </c>
+      <c r="E12">
+        <v>12.09148584676468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>9200.879999999999</v>
+      </c>
+      <c r="C13">
+        <v>7255.611016695975</v>
+      </c>
+      <c r="D13">
+        <v>720.6</v>
+      </c>
+      <c r="E13">
+        <v>12.76835970024979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>8359.58</v>
+      </c>
+      <c r="C14">
+        <v>6537.884751477345</v>
+      </c>
+      <c r="D14">
+        <v>728.018</v>
+      </c>
+      <c r="E14">
+        <v>11.48265564862407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>8084.84</v>
+      </c>
+      <c r="C15">
+        <v>6101.743076728157</v>
+      </c>
+      <c r="D15">
+        <v>731.879</v>
+      </c>
+      <c r="E15">
+        <v>11.04668941177435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8695.360000000001</v>
+      </c>
+      <c r="C16">
+        <v>6244.424911102703</v>
+      </c>
+      <c r="D16">
+        <v>709.218</v>
+      </c>
+      <c r="E16">
+        <v>12.26048972248307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>9084.92</v>
+      </c>
+      <c r="C17">
+        <v>6484.549559807528</v>
+      </c>
+      <c r="D17">
+        <v>729.3</v>
+      </c>
+      <c r="E17">
+        <v>12.45704099821747</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>9298.1</v>
+      </c>
+      <c r="C18">
+        <v>4500.953675611426</v>
+      </c>
+      <c r="D18">
+        <v>826.135</v>
+      </c>
+      <c r="E18">
+        <v>11.25494017321624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>8873.42</v>
+      </c>
+      <c r="C19">
+        <v>4405.501685801516</v>
+      </c>
+      <c r="D19">
+        <v>782.223</v>
+      </c>
+      <c r="E19">
+        <v>11.34384951605872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>9250.08</v>
+      </c>
+      <c r="C20">
+        <v>4595.938118991595</v>
+      </c>
+      <c r="D20">
+        <v>763.3869999999999</v>
+      </c>
+      <c r="E20">
+        <v>12.11715682871204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>9340.959999999999</v>
+      </c>
+      <c r="C21">
+        <v>4481.948848257865</v>
+      </c>
+      <c r="D21">
+        <v>773.4</v>
+      </c>
+      <c r="E21">
+        <v>12.07778639772433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>9241.58</v>
+      </c>
+      <c r="C22">
+        <v>4136.980868169443</v>
+      </c>
+      <c r="D22">
+        <v>756.968</v>
+      </c>
+      <c r="E22">
+        <v>12.20867989135604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>9154.08</v>
+      </c>
+      <c r="C23">
+        <v>4215.946412562665</v>
+      </c>
+      <c r="D23">
+        <v>755.188</v>
+      </c>
+      <c r="E23">
+        <v>12.12159091510988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>9414.26</v>
+      </c>
+      <c r="C24">
+        <v>4146.410236867549</v>
+      </c>
+      <c r="D24">
+        <v>757.072</v>
+      </c>
+      <c r="E24">
+        <v>12.43509203880212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>9236.200000000001</v>
+      </c>
+      <c r="C25">
+        <v>3887.656769829353</v>
+      </c>
+      <c r="D25">
+        <v>766.2</v>
+      </c>
+      <c r="E25">
+        <v>12.05455494648917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>8722.9</v>
+      </c>
+      <c r="C26">
+        <v>3453.627077436126</v>
+      </c>
+      <c r="D26">
+        <v>782.39</v>
+      </c>
+      <c r="E26">
+        <v>11.1490433159933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>8661.559999999999</v>
+      </c>
+      <c r="C27">
+        <v>3218.05008761517</v>
+      </c>
+      <c r="D27">
+        <v>797.701</v>
+      </c>
+      <c r="E27">
+        <v>10.85815361896249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>8551.6</v>
+      </c>
+      <c r="C28">
+        <v>3199.566945697496</v>
+      </c>
+      <c r="D28">
+        <v>773.153</v>
+      </c>
+      <c r="E28">
+        <v>11.06068268505716</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>8546.26</v>
+      </c>
+      <c r="C29">
+        <v>3258.588714827325</v>
+      </c>
+      <c r="D29">
+        <v>758.1</v>
+      </c>
+      <c r="E29">
+        <v>11.27326210262498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>8819.34</v>
+      </c>
+      <c r="C30">
+        <v>3147.527150701007</v>
+      </c>
+      <c r="D30">
+        <v>777.639</v>
+      </c>
+      <c r="E30">
+        <v>11.34117501822825</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>8680.4</v>
+      </c>
+      <c r="C31">
+        <v>3156.721945309723</v>
+      </c>
+      <c r="D31">
+        <v>777.832</v>
+      </c>
+      <c r="E31">
+        <v>11.15973629266988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>8666.66</v>
+      </c>
+      <c r="C32">
+        <v>3113.752983844415</v>
+      </c>
+      <c r="D32">
+        <v>770.457</v>
+      </c>
+      <c r="E32">
+        <v>11.24872640523741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>8558.84</v>
+      </c>
+      <c r="C33">
+        <v>3108.399243083166</v>
+      </c>
+      <c r="D33">
+        <v>763.5</v>
+      </c>
+      <c r="E33">
+        <v>11.21000654878847</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -692,7 +1644,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -715,6 +1667,1094 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>14473.32</v>
+      </c>
+      <c r="C2">
+        <v>7644.582720959987</v>
+      </c>
+      <c r="D2">
+        <v>1121.019</v>
+      </c>
+      <c r="E2">
+        <v>12.91086056525358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20667.42</v>
+      </c>
+      <c r="C3">
+        <v>12654.8549001401</v>
+      </c>
+      <c r="D3">
+        <v>1215.865</v>
+      </c>
+      <c r="E3">
+        <v>16.99812067951623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>28596.72</v>
+      </c>
+      <c r="C4">
+        <v>24302.4816107656</v>
+      </c>
+      <c r="D4">
+        <v>1622.317</v>
+      </c>
+      <c r="E4">
+        <v>17.62708521207631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>29123.1</v>
+      </c>
+      <c r="C5">
+        <v>25779.97363051406</v>
+      </c>
+      <c r="D5">
+        <v>1635.737</v>
+      </c>
+      <c r="E5">
+        <v>17.80426804553544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>31061.4</v>
+      </c>
+      <c r="C6">
+        <v>29054.91866861788</v>
+      </c>
+      <c r="D6">
+        <v>1716.182</v>
+      </c>
+      <c r="E6">
+        <v>18.0991293464213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>31140.1</v>
+      </c>
+      <c r="C7">
+        <v>30498.54823413731</v>
+      </c>
+      <c r="D7">
+        <v>1709.133</v>
+      </c>
+      <c r="E7">
+        <v>18.2198225650081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>29422.86</v>
+      </c>
+      <c r="C8">
+        <v>28157.71263828793</v>
+      </c>
+      <c r="D8">
+        <v>1717.793</v>
+      </c>
+      <c r="E8">
+        <v>17.12829194204424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>30366.84</v>
+      </c>
+      <c r="C9">
+        <v>28150.25960119018</v>
+      </c>
+      <c r="D9">
+        <v>1695</v>
+      </c>
+      <c r="E9">
+        <v>17.91553982300885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>24429.42</v>
+      </c>
+      <c r="C10">
+        <v>22158.9067163432</v>
+      </c>
+      <c r="D10">
+        <v>1787.309</v>
+      </c>
+      <c r="E10">
+        <v>13.66826888915123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>22456.72</v>
+      </c>
+      <c r="C11">
+        <v>19904.25093394876</v>
+      </c>
+      <c r="D11">
+        <v>1700.863</v>
+      </c>
+      <c r="E11">
+        <v>13.20313276260345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>24647.28</v>
+      </c>
+      <c r="C12">
+        <v>21865.81894651102</v>
+      </c>
+      <c r="D12">
+        <v>1699.091</v>
+      </c>
+      <c r="E12">
+        <v>14.50615652722544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>22768.66</v>
+      </c>
+      <c r="C13">
+        <v>20694.24180308136</v>
+      </c>
+      <c r="D13">
+        <v>1692</v>
+      </c>
+      <c r="E13">
+        <v>13.4566548463357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>24153.28</v>
+      </c>
+      <c r="C14">
+        <v>21197.1112664344</v>
+      </c>
+      <c r="D14">
+        <v>1683.013</v>
+      </c>
+      <c r="E14">
+        <v>14.35121416174444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>23663.8</v>
+      </c>
+      <c r="C15">
+        <v>21362.26240733879</v>
+      </c>
+      <c r="D15">
+        <v>1720.925</v>
+      </c>
+      <c r="E15">
+        <v>13.75062829582928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>24390.2</v>
+      </c>
+      <c r="C16">
+        <v>22769.46899600428</v>
+      </c>
+      <c r="D16">
+        <v>1698.41</v>
+      </c>
+      <c r="E16">
+        <v>14.36060786264801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>23373.8</v>
+      </c>
+      <c r="C17">
+        <v>20456.60579763906</v>
+      </c>
+      <c r="D17">
+        <v>1732.5</v>
+      </c>
+      <c r="E17">
+        <v>13.49137085137085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>21418.72</v>
+      </c>
+      <c r="C18">
+        <v>16133.84536809498</v>
+      </c>
+      <c r="D18">
+        <v>1731.201</v>
+      </c>
+      <c r="E18">
+        <v>12.37217399943738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>21686.76</v>
+      </c>
+      <c r="C19">
+        <v>16960.63748514188</v>
+      </c>
+      <c r="D19">
+        <v>1674.917</v>
+      </c>
+      <c r="E19">
+        <v>12.94796100344077</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>21577.76</v>
+      </c>
+      <c r="C20">
+        <v>16161.39092350655</v>
+      </c>
+      <c r="D20">
+        <v>1673.932</v>
+      </c>
+      <c r="E20">
+        <v>12.89046388981153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>22539.14</v>
+      </c>
+      <c r="C21">
+        <v>16777.29159490291</v>
+      </c>
+      <c r="D21">
+        <v>1699.5</v>
+      </c>
+      <c r="E21">
+        <v>13.26221829949985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21996.48</v>
+      </c>
+      <c r="C22">
+        <v>16194.78124611753</v>
+      </c>
+      <c r="D22">
+        <v>1687.283</v>
+      </c>
+      <c r="E22">
+        <v>13.0366275248432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21695.44</v>
+      </c>
+      <c r="C23">
+        <v>16436.7469289516</v>
+      </c>
+      <c r="D23">
+        <v>1669.002</v>
+      </c>
+      <c r="E23">
+        <v>12.9990497315162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>21866.36</v>
+      </c>
+      <c r="C24">
+        <v>16009.32204530848</v>
+      </c>
+      <c r="D24">
+        <v>1671.365</v>
+      </c>
+      <c r="E24">
+        <v>13.08293520565526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>22478.74</v>
+      </c>
+      <c r="C25">
+        <v>16340.02708726029</v>
+      </c>
+      <c r="D25">
+        <v>1681.5</v>
+      </c>
+      <c r="E25">
+        <v>13.36826642878382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>21217.92</v>
+      </c>
+      <c r="C26">
+        <v>14888.64624046122</v>
+      </c>
+      <c r="D26">
+        <v>1682.932</v>
+      </c>
+      <c r="E26">
+        <v>12.60771082848267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>20459.06</v>
+      </c>
+      <c r="C27">
+        <v>15022.24559499678</v>
+      </c>
+      <c r="D27">
+        <v>1674.295</v>
+      </c>
+      <c r="E27">
+        <v>12.21950731501916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>21156.7</v>
+      </c>
+      <c r="C28">
+        <v>15488.71731002926</v>
+      </c>
+      <c r="D28">
+        <v>1677.019</v>
+      </c>
+      <c r="E28">
+        <v>12.61565909509672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>20459</v>
+      </c>
+      <c r="C29">
+        <v>14643.62118466604</v>
+      </c>
+      <c r="D29">
+        <v>1669.5</v>
+      </c>
+      <c r="E29">
+        <v>12.25456723569931</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>20808.48</v>
+      </c>
+      <c r="C30">
+        <v>15209.35551854844</v>
+      </c>
+      <c r="D30">
+        <v>1693.958</v>
+      </c>
+      <c r="E30">
+        <v>12.28394092415514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>21371.46</v>
+      </c>
+      <c r="C31">
+        <v>15355.3000969828</v>
+      </c>
+      <c r="D31">
+        <v>1681.974</v>
+      </c>
+      <c r="E31">
+        <v>12.70617738443044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>21075.02</v>
+      </c>
+      <c r="C32">
+        <v>15078.20003845287</v>
+      </c>
+      <c r="D32">
+        <v>1702.891</v>
+      </c>
+      <c r="E32">
+        <v>12.37602406730672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>20862.42</v>
+      </c>
+      <c r="C33">
+        <v>15160.52624890047</v>
+      </c>
+      <c r="D33">
+        <v>1684.5</v>
+      </c>
+      <c r="E33">
+        <v>12.38493321460374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>19874.1</v>
+      </c>
+      <c r="C34">
+        <v>7894.561823812643</v>
+      </c>
+      <c r="D34">
+        <v>1647.118</v>
+      </c>
+      <c r="E34">
+        <v>12.06598434356251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>22362.06</v>
+      </c>
+      <c r="C35">
+        <v>10633.86504317221</v>
+      </c>
+      <c r="D35">
+        <v>1725.416</v>
+      </c>
+      <c r="E35">
+        <v>12.96038752393626</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>22862.5</v>
+      </c>
+      <c r="C36">
+        <v>12095.30423552876</v>
+      </c>
+      <c r="D36">
+        <v>1786.057</v>
+      </c>
+      <c r="E36">
+        <v>12.80054331972608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>23798.92</v>
+      </c>
+      <c r="C37">
+        <v>12950.10911280673</v>
+      </c>
+      <c r="D37">
+        <v>1768.5</v>
+      </c>
+      <c r="E37">
+        <v>13.45712185467911</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>23221.94</v>
+      </c>
+      <c r="C38">
+        <v>12029.2858905423</v>
+      </c>
+      <c r="D38">
+        <v>1757.479</v>
+      </c>
+      <c r="E38">
+        <v>13.21321051346844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>23187.48</v>
+      </c>
+      <c r="C39">
+        <v>12694.42974101633</v>
+      </c>
+      <c r="D39">
+        <v>1783.492</v>
+      </c>
+      <c r="E39">
+        <v>13.00116849416762</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>24048.38</v>
+      </c>
+      <c r="C40">
+        <v>12874.19551566621</v>
+      </c>
+      <c r="D40">
+        <v>1755.345</v>
+      </c>
+      <c r="E40">
+        <v>13.70008744719699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>23992.88</v>
+      </c>
+      <c r="C41">
+        <v>12309.10539826514</v>
+      </c>
+      <c r="D41">
+        <v>1752</v>
+      </c>
+      <c r="E41">
+        <v>13.69456621004566</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>20776.92</v>
+      </c>
+      <c r="C42">
+        <v>9048.390581401756</v>
+      </c>
+      <c r="D42">
+        <v>1778.012</v>
+      </c>
+      <c r="E42">
+        <v>11.68547793828163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>21029.52</v>
+      </c>
+      <c r="C43">
+        <v>9510.088147309676</v>
+      </c>
+      <c r="D43">
+        <v>1760.491</v>
+      </c>
+      <c r="E43">
+        <v>11.94525845346554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>20901.08</v>
+      </c>
+      <c r="C44">
+        <v>8406.81283445754</v>
+      </c>
+      <c r="D44">
+        <v>1772.047</v>
+      </c>
+      <c r="E44">
+        <v>11.79487902973228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>21542.82</v>
+      </c>
+      <c r="C45">
+        <v>9090.31570670678</v>
+      </c>
+      <c r="D45">
+        <v>1759.5</v>
+      </c>
+      <c r="E45">
+        <v>12.24371696504689</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>21003.22</v>
+      </c>
+      <c r="C46">
+        <v>8498.56324513738</v>
+      </c>
+      <c r="D46">
+        <v>1790.807</v>
+      </c>
+      <c r="E46">
+        <v>11.72835487017864</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>21212.48</v>
+      </c>
+      <c r="C47">
+        <v>9084.260556016654</v>
+      </c>
+      <c r="D47">
+        <v>1749.513</v>
+      </c>
+      <c r="E47">
+        <v>12.12479129906437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>20656</v>
+      </c>
+      <c r="C48">
+        <v>8957.064027905573</v>
+      </c>
+      <c r="D48">
+        <v>1744.852</v>
+      </c>
+      <c r="E48">
+        <v>11.83825333036842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>21703.16</v>
+      </c>
+      <c r="C49">
+        <v>9559.803994559721</v>
+      </c>
+      <c r="D49">
+        <v>1770</v>
+      </c>
+      <c r="E49">
+        <v>12.26167231638418</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>20702.04</v>
+      </c>
+      <c r="C50">
+        <v>7715.293425294984</v>
+      </c>
+      <c r="D50">
+        <v>1805.584</v>
+      </c>
+      <c r="E50">
+        <v>11.46556460402839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>21221.08</v>
+      </c>
+      <c r="C51">
+        <v>7762.288917168698</v>
+      </c>
+      <c r="D51">
+        <v>1746.809</v>
+      </c>
+      <c r="E51">
+        <v>12.14848332015693</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>20986.22</v>
+      </c>
+      <c r="C52">
+        <v>8097.193545395837</v>
+      </c>
+      <c r="D52">
+        <v>1751.626</v>
+      </c>
+      <c r="E52">
+        <v>11.98099365960542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>21047.76</v>
+      </c>
+      <c r="C53">
+        <v>7758.683843436334</v>
+      </c>
+      <c r="D53">
+        <v>1770</v>
+      </c>
+      <c r="E53">
+        <v>11.89138983050847</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>21334.9</v>
+      </c>
+      <c r="C54">
+        <v>7783.207564365735</v>
+      </c>
+      <c r="D54">
+        <v>1755.115</v>
+      </c>
+      <c r="E54">
+        <v>12.1558416400065</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>20701.1</v>
+      </c>
+      <c r="C55">
+        <v>7720.665877370941</v>
+      </c>
+      <c r="D55">
+        <v>1719.804</v>
+      </c>
+      <c r="E55">
+        <v>12.0368949019772</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>20895.78</v>
+      </c>
+      <c r="C56">
+        <v>7917.309150942636</v>
+      </c>
+      <c r="D56">
+        <v>1758.418</v>
+      </c>
+      <c r="E56">
+        <v>11.88328372434768</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>20835.96</v>
+      </c>
+      <c r="C57">
+        <v>7680.68958352048</v>
+      </c>
+      <c r="D57">
+        <v>1734</v>
+      </c>
+      <c r="E57">
+        <v>12.01612456747405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>20299.42</v>
+      </c>
+      <c r="C58">
+        <v>7255.304987634911</v>
+      </c>
+      <c r="D58">
+        <v>1775.682</v>
+      </c>
+      <c r="E58">
+        <v>11.43190053173935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>20327.7</v>
+      </c>
+      <c r="C59">
+        <v>7393.593626241572</v>
+      </c>
+      <c r="D59">
+        <v>1776.298</v>
+      </c>
+      <c r="E59">
+        <v>11.44385683032915</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>20339.74</v>
+      </c>
+      <c r="C60">
+        <v>7220.054316443887</v>
+      </c>
+      <c r="D60">
+        <v>1774.339</v>
+      </c>
+      <c r="E60">
+        <v>11.46327731059285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>20281.54</v>
+      </c>
+      <c r="C61">
+        <v>7302.890744657214</v>
+      </c>
+      <c r="D61">
+        <v>1734</v>
+      </c>
+      <c r="E61">
+        <v>11.69638985005767</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>20543.62</v>
+      </c>
+      <c r="C62">
+        <v>7376.81286841411</v>
+      </c>
+      <c r="D62">
+        <v>1741.417</v>
+      </c>
+      <c r="E62">
+        <v>11.79707100596813</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>20276.3</v>
+      </c>
+      <c r="C63">
+        <v>7057.801492674613</v>
+      </c>
+      <c r="D63">
+        <v>1759.971</v>
+      </c>
+      <c r="E63">
+        <v>11.52081483160802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>19955.5</v>
+      </c>
+      <c r="C64">
+        <v>7346.862197564345</v>
+      </c>
+      <c r="D64">
+        <v>1755.374</v>
+      </c>
+      <c r="E64">
+        <v>11.36823263874251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>20647.84</v>
+      </c>
+      <c r="C65">
+        <v>7032.331287304374</v>
+      </c>
+      <c r="D65">
+        <v>1753.5</v>
+      </c>
+      <c r="E65">
+        <v>11.77521528371828</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -722,7 +2762,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -745,6 +2785,2182 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>18016.02</v>
+      </c>
+      <c r="C2">
+        <v>5934.846161409746</v>
+      </c>
+      <c r="D2">
+        <v>1061.957</v>
+      </c>
+      <c r="E2">
+        <v>16.96492419184581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>27668.34</v>
+      </c>
+      <c r="C3">
+        <v>11133.78561156986</v>
+      </c>
+      <c r="D3">
+        <v>1202.993</v>
+      </c>
+      <c r="E3">
+        <v>22.9995852012439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>55156.32</v>
+      </c>
+      <c r="C4">
+        <v>30340.31788985738</v>
+      </c>
+      <c r="D4">
+        <v>1965.926</v>
+      </c>
+      <c r="E4">
+        <v>28.05615267309146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>55516.32</v>
+      </c>
+      <c r="C5">
+        <v>34940.66945062158</v>
+      </c>
+      <c r="D5">
+        <v>2093.545</v>
+      </c>
+      <c r="E5">
+        <v>26.51785368836113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>71532.42</v>
+      </c>
+      <c r="C6">
+        <v>52542.96016540751</v>
+      </c>
+      <c r="D6">
+        <v>2641.995</v>
+      </c>
+      <c r="E6">
+        <v>27.07515343518818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>77903.67999999999</v>
+      </c>
+      <c r="C7">
+        <v>63837.05955679349</v>
+      </c>
+      <c r="D7">
+        <v>2723.724</v>
+      </c>
+      <c r="E7">
+        <v>28.60189945824172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>79442.34</v>
+      </c>
+      <c r="C8">
+        <v>71678.03761630476</v>
+      </c>
+      <c r="D8">
+        <v>2896.111</v>
+      </c>
+      <c r="E8">
+        <v>27.43069585385367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>81340.24000000001</v>
+      </c>
+      <c r="C9">
+        <v>74042.38452091072</v>
+      </c>
+      <c r="D9">
+        <v>2858.476</v>
+      </c>
+      <c r="E9">
+        <v>28.45580652067745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>58934.54</v>
+      </c>
+      <c r="C10">
+        <v>47174.24473786941</v>
+      </c>
+      <c r="D10">
+        <v>2869.97</v>
+      </c>
+      <c r="E10">
+        <v>20.53489757732659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>62354.4</v>
+      </c>
+      <c r="C11">
+        <v>56911.98606831431</v>
+      </c>
+      <c r="D11">
+        <v>2956.963</v>
+      </c>
+      <c r="E11">
+        <v>21.08731154228172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>61137.24</v>
+      </c>
+      <c r="C12">
+        <v>59880.41376929856</v>
+      </c>
+      <c r="D12">
+        <v>2997.52</v>
+      </c>
+      <c r="E12">
+        <v>20.39594064426593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>63579.26</v>
+      </c>
+      <c r="C13">
+        <v>61480.02299163851</v>
+      </c>
+      <c r="D13">
+        <v>2997.1</v>
+      </c>
+      <c r="E13">
+        <v>21.21359314003537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>64580.46</v>
+      </c>
+      <c r="C14">
+        <v>59039.91323323909</v>
+      </c>
+      <c r="D14">
+        <v>3007.041</v>
+      </c>
+      <c r="E14">
+        <v>21.47641485433687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>63331.3</v>
+      </c>
+      <c r="C15">
+        <v>62671.79948836638</v>
+      </c>
+      <c r="D15">
+        <v>3000.435</v>
+      </c>
+      <c r="E15">
+        <v>21.10737276428251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>62837.48</v>
+      </c>
+      <c r="C16">
+        <v>58686.43177472626</v>
+      </c>
+      <c r="D16">
+        <v>3001.926</v>
+      </c>
+      <c r="E16">
+        <v>20.93238807352347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>62759.12</v>
+      </c>
+      <c r="C17">
+        <v>59640.92480189757</v>
+      </c>
+      <c r="D17">
+        <v>3000</v>
+      </c>
+      <c r="E17">
+        <v>20.91970666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>55247.14</v>
+      </c>
+      <c r="C18">
+        <v>46243.05212051211</v>
+      </c>
+      <c r="D18">
+        <v>2861.669</v>
+      </c>
+      <c r="E18">
+        <v>19.30591553390696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>58453.38</v>
+      </c>
+      <c r="C19">
+        <v>51767.54378349044</v>
+      </c>
+      <c r="D19">
+        <v>2956.159</v>
+      </c>
+      <c r="E19">
+        <v>19.77342220090327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>60794.9</v>
+      </c>
+      <c r="C20">
+        <v>54731.02937813247</v>
+      </c>
+      <c r="D20">
+        <v>3011.853</v>
+      </c>
+      <c r="E20">
+        <v>20.18521488266526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>62649.52</v>
+      </c>
+      <c r="C21">
+        <v>60469.05433169597</v>
+      </c>
+      <c r="D21">
+        <v>3000</v>
+      </c>
+      <c r="E21">
+        <v>20.88317333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>59586.62</v>
+      </c>
+      <c r="C22">
+        <v>53763.92931116177</v>
+      </c>
+      <c r="D22">
+        <v>3016.302</v>
+      </c>
+      <c r="E22">
+        <v>19.75485876414232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>59780.96</v>
+      </c>
+      <c r="C23">
+        <v>55904.9372120066</v>
+      </c>
+      <c r="D23">
+        <v>3001.315</v>
+      </c>
+      <c r="E23">
+        <v>19.91825583119399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>58909.8</v>
+      </c>
+      <c r="C24">
+        <v>49524.51259689489</v>
+      </c>
+      <c r="D24">
+        <v>3001.887</v>
+      </c>
+      <c r="E24">
+        <v>19.6242563427604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>56571.08</v>
+      </c>
+      <c r="C25">
+        <v>51979.2246078527</v>
+      </c>
+      <c r="D25">
+        <v>3000</v>
+      </c>
+      <c r="E25">
+        <v>18.85702666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>58544.9</v>
+      </c>
+      <c r="C26">
+        <v>54868.38828679042</v>
+      </c>
+      <c r="D26">
+        <v>3022.34</v>
+      </c>
+      <c r="E26">
+        <v>19.37071937637725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>56795.1</v>
+      </c>
+      <c r="C27">
+        <v>47553.3476465117</v>
+      </c>
+      <c r="D27">
+        <v>3001.809</v>
+      </c>
+      <c r="E27">
+        <v>18.92029106448811</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>56906.52</v>
+      </c>
+      <c r="C28">
+        <v>48666.35901615817</v>
+      </c>
+      <c r="D28">
+        <v>3002.974</v>
+      </c>
+      <c r="E28">
+        <v>18.95005417962327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>56646.02</v>
+      </c>
+      <c r="C29">
+        <v>50829.89363120485</v>
+      </c>
+      <c r="D29">
+        <v>3000</v>
+      </c>
+      <c r="E29">
+        <v>18.88200666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>56051.94</v>
+      </c>
+      <c r="C30">
+        <v>51215.95600041456</v>
+      </c>
+      <c r="D30">
+        <v>3007.249</v>
+      </c>
+      <c r="E30">
+        <v>18.6389421028987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>56017.84</v>
+      </c>
+      <c r="C31">
+        <v>49653.72003117592</v>
+      </c>
+      <c r="D31">
+        <v>3000.501</v>
+      </c>
+      <c r="E31">
+        <v>18.66949552758022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>60138.8</v>
+      </c>
+      <c r="C32">
+        <v>53101.05773108479</v>
+      </c>
+      <c r="D32">
+        <v>3001.881</v>
+      </c>
+      <c r="E32">
+        <v>20.03370553329729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>60213.72</v>
+      </c>
+      <c r="C33">
+        <v>54127.11768200483</v>
+      </c>
+      <c r="D33">
+        <v>3000</v>
+      </c>
+      <c r="E33">
+        <v>20.07124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>39402.34</v>
+      </c>
+      <c r="C34">
+        <v>27509.97687611533</v>
+      </c>
+      <c r="D34">
+        <v>2447.454</v>
+      </c>
+      <c r="E34">
+        <v>16.09931790342127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>46889.44</v>
+      </c>
+      <c r="C35">
+        <v>33213.28738451525</v>
+      </c>
+      <c r="D35">
+        <v>2784.427</v>
+      </c>
+      <c r="E35">
+        <v>16.83988842228581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>53960.96</v>
+      </c>
+      <c r="C36">
+        <v>39799.10529494853</v>
+      </c>
+      <c r="D36">
+        <v>3012.706</v>
+      </c>
+      <c r="E36">
+        <v>17.91112707313624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>54216.62</v>
+      </c>
+      <c r="C37">
+        <v>39573.55225116391</v>
+      </c>
+      <c r="D37">
+        <v>2994.109</v>
+      </c>
+      <c r="E37">
+        <v>18.10776427979075</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>54585.12</v>
+      </c>
+      <c r="C38">
+        <v>43509.99648110305</v>
+      </c>
+      <c r="D38">
+        <v>3023.152</v>
+      </c>
+      <c r="E38">
+        <v>18.05569815874293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>54401.24</v>
+      </c>
+      <c r="C39">
+        <v>40947.1283298646</v>
+      </c>
+      <c r="D39">
+        <v>3002.033</v>
+      </c>
+      <c r="E39">
+        <v>18.12146635296814</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>53986.6</v>
+      </c>
+      <c r="C40">
+        <v>38416.63354902405</v>
+      </c>
+      <c r="D40">
+        <v>3001.796</v>
+      </c>
+      <c r="E40">
+        <v>17.98476645315005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>52765.56</v>
+      </c>
+      <c r="C41">
+        <v>39295.40370433163</v>
+      </c>
+      <c r="D41">
+        <v>3000</v>
+      </c>
+      <c r="E41">
+        <v>17.58852</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>49678.1</v>
+      </c>
+      <c r="C42">
+        <v>37155.90687885306</v>
+      </c>
+      <c r="D42">
+        <v>3035.815</v>
+      </c>
+      <c r="E42">
+        <v>16.36400768821552</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>51387.86</v>
+      </c>
+      <c r="C43">
+        <v>39144.10884182191</v>
+      </c>
+      <c r="D43">
+        <v>3002.728</v>
+      </c>
+      <c r="E43">
+        <v>17.11372458644273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>50923.32</v>
+      </c>
+      <c r="C44">
+        <v>37245.22230001588</v>
+      </c>
+      <c r="D44">
+        <v>3004.084</v>
+      </c>
+      <c r="E44">
+        <v>16.95136354376243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>51303.58</v>
+      </c>
+      <c r="C45">
+        <v>37611.90420576443</v>
+      </c>
+      <c r="D45">
+        <v>3000</v>
+      </c>
+      <c r="E45">
+        <v>17.10119333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>50336.68</v>
+      </c>
+      <c r="C46">
+        <v>37690.56316079132</v>
+      </c>
+      <c r="D46">
+        <v>3007.708</v>
+      </c>
+      <c r="E46">
+        <v>16.73589324495596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>51601.06</v>
+      </c>
+      <c r="C47">
+        <v>38158.17038690927</v>
+      </c>
+      <c r="D47">
+        <v>3000.48</v>
+      </c>
+      <c r="E47">
+        <v>17.1976017170586</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>51241.56</v>
+      </c>
+      <c r="C48">
+        <v>37766.27162914549</v>
+      </c>
+      <c r="D48">
+        <v>3001.921</v>
+      </c>
+      <c r="E48">
+        <v>17.06958977268222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>49837.28</v>
+      </c>
+      <c r="C49">
+        <v>38108.41673700968</v>
+      </c>
+      <c r="D49">
+        <v>3000</v>
+      </c>
+      <c r="E49">
+        <v>16.61242666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>47617.14</v>
+      </c>
+      <c r="C50">
+        <v>33026.7900017607</v>
+      </c>
+      <c r="D50">
+        <v>3052.956</v>
+      </c>
+      <c r="E50">
+        <v>15.59706068479205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>48789.68</v>
+      </c>
+      <c r="C51">
+        <v>35555.10078592944</v>
+      </c>
+      <c r="D51">
+        <v>3005.43</v>
+      </c>
+      <c r="E51">
+        <v>16.2338434100944</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>49242.7</v>
+      </c>
+      <c r="C52">
+        <v>36479.61343421829</v>
+      </c>
+      <c r="D52">
+        <v>3005.57</v>
+      </c>
+      <c r="E52">
+        <v>16.38381405191029</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>48412.84</v>
+      </c>
+      <c r="C53">
+        <v>33676.08041228076</v>
+      </c>
+      <c r="D53">
+        <v>3000</v>
+      </c>
+      <c r="E53">
+        <v>16.13761333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>50720.56</v>
+      </c>
+      <c r="C54">
+        <v>36674.31691642531</v>
+      </c>
+      <c r="D54">
+        <v>3010.556</v>
+      </c>
+      <c r="E54">
+        <v>16.84757234211886</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>49257.64</v>
+      </c>
+      <c r="C55">
+        <v>36352.3203885309</v>
+      </c>
+      <c r="D55">
+        <v>3000.816</v>
+      </c>
+      <c r="E55">
+        <v>16.41474852173542</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>50401.88</v>
+      </c>
+      <c r="C56">
+        <v>35580.38501851266</v>
+      </c>
+      <c r="D56">
+        <v>3001.76</v>
+      </c>
+      <c r="E56">
+        <v>16.79077607803422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>48512.96</v>
+      </c>
+      <c r="C57">
+        <v>35953.3139395856</v>
+      </c>
+      <c r="D57">
+        <v>3000</v>
+      </c>
+      <c r="E57">
+        <v>16.17098666666667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>47835.44</v>
+      </c>
+      <c r="C58">
+        <v>35664.67097852439</v>
+      </c>
+      <c r="D58">
+        <v>3022.989</v>
+      </c>
+      <c r="E58">
+        <v>15.82388821130345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>49489.14</v>
+      </c>
+      <c r="C59">
+        <v>37852.18449786484</v>
+      </c>
+      <c r="D59">
+        <v>3001.678</v>
+      </c>
+      <c r="E59">
+        <v>16.48715818285639</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>50309.04</v>
+      </c>
+      <c r="C60">
+        <v>37711.55039876245</v>
+      </c>
+      <c r="D60">
+        <v>3002.88</v>
+      </c>
+      <c r="E60">
+        <v>16.75359654731458</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>50157.22</v>
+      </c>
+      <c r="C61">
+        <v>36383.00530565885</v>
+      </c>
+      <c r="D61">
+        <v>3000</v>
+      </c>
+      <c r="E61">
+        <v>16.71907333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>49444.16</v>
+      </c>
+      <c r="C62">
+        <v>37185.97538178069</v>
+      </c>
+      <c r="D62">
+        <v>3007.511</v>
+      </c>
+      <c r="E62">
+        <v>16.44022582128544</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>46890.58</v>
+      </c>
+      <c r="C63">
+        <v>31893.97920083977</v>
+      </c>
+      <c r="D63">
+        <v>3000.475</v>
+      </c>
+      <c r="E63">
+        <v>15.62771894450045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>49851.86</v>
+      </c>
+      <c r="C64">
+        <v>37554.83434846171</v>
+      </c>
+      <c r="D64">
+        <v>3001.819</v>
+      </c>
+      <c r="E64">
+        <v>16.60721715733027</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>48883.56</v>
+      </c>
+      <c r="C65">
+        <v>39185.01551519917</v>
+      </c>
+      <c r="D65">
+        <v>3000</v>
+      </c>
+      <c r="E65">
+        <v>16.29452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>23401.38</v>
+      </c>
+      <c r="C66">
+        <v>7626.611888355143</v>
+      </c>
+      <c r="D66">
+        <v>1820.842</v>
+      </c>
+      <c r="E66">
+        <v>12.85195530419443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>30994.14</v>
+      </c>
+      <c r="C67">
+        <v>10875.11896304588</v>
+      </c>
+      <c r="D67">
+        <v>2240.296</v>
+      </c>
+      <c r="E67">
+        <v>13.83484146737753</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>42954.3</v>
+      </c>
+      <c r="C68">
+        <v>23642.85881000857</v>
+      </c>
+      <c r="D68">
+        <v>2863.556</v>
+      </c>
+      <c r="E68">
+        <v>15.00033524750345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>43584.78</v>
+      </c>
+      <c r="C69">
+        <v>25884.81726324526</v>
+      </c>
+      <c r="D69">
+        <v>2878.223</v>
+      </c>
+      <c r="E69">
+        <v>15.14294757563955</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>45627.22</v>
+      </c>
+      <c r="C70">
+        <v>30009.4102219887</v>
+      </c>
+      <c r="D70">
+        <v>3025.272</v>
+      </c>
+      <c r="E70">
+        <v>15.08202237683091</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>46149.32</v>
+      </c>
+      <c r="C71">
+        <v>31601.34279959635</v>
+      </c>
+      <c r="D71">
+        <v>2998.157</v>
+      </c>
+      <c r="E71">
+        <v>15.39256283109924</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>47345.52</v>
+      </c>
+      <c r="C72">
+        <v>33180.92996782339</v>
+      </c>
+      <c r="D72">
+        <v>3001.779</v>
+      </c>
+      <c r="E72">
+        <v>15.77248691525925</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>47075.1</v>
+      </c>
+      <c r="C73">
+        <v>30361.36768312653</v>
+      </c>
+      <c r="D73">
+        <v>3000</v>
+      </c>
+      <c r="E73">
+        <v>15.6917</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>38155.06</v>
+      </c>
+      <c r="C74">
+        <v>22139.15409396664</v>
+      </c>
+      <c r="D74">
+        <v>3044.349</v>
+      </c>
+      <c r="E74">
+        <v>12.53307685813946</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>40428.5</v>
+      </c>
+      <c r="C75">
+        <v>24943.96326468591</v>
+      </c>
+      <c r="D75">
+        <v>3004.678</v>
+      </c>
+      <c r="E75">
+        <v>13.45518554733652</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>39356</v>
+      </c>
+      <c r="C76">
+        <v>23570.09975371339</v>
+      </c>
+      <c r="D76">
+        <v>3005.251</v>
+      </c>
+      <c r="E76">
+        <v>13.09574474810923</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>38943.36</v>
+      </c>
+      <c r="C77">
+        <v>22314.27304463222</v>
+      </c>
+      <c r="D77">
+        <v>3000</v>
+      </c>
+      <c r="E77">
+        <v>12.98112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>37814.92</v>
+      </c>
+      <c r="C78">
+        <v>21712.040617906</v>
+      </c>
+      <c r="D78">
+        <v>3007.752</v>
+      </c>
+      <c r="E78">
+        <v>12.57248602943328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>39398.48</v>
+      </c>
+      <c r="C79">
+        <v>23086.08796850605</v>
+      </c>
+      <c r="D79">
+        <v>3000.463</v>
+      </c>
+      <c r="E79">
+        <v>13.13080014651072</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>38137.44</v>
+      </c>
+      <c r="C80">
+        <v>21638.86586321935</v>
+      </c>
+      <c r="D80">
+        <v>3001.783</v>
+      </c>
+      <c r="E80">
+        <v>12.70492903717557</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>39316.46</v>
+      </c>
+      <c r="C81">
+        <v>23736.7492270614</v>
+      </c>
+      <c r="D81">
+        <v>3000</v>
+      </c>
+      <c r="E81">
+        <v>13.10548666666667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>36959.4</v>
+      </c>
+      <c r="C82">
+        <v>17119.10206874181</v>
+      </c>
+      <c r="D82">
+        <v>3053.35</v>
+      </c>
+      <c r="E82">
+        <v>12.10454091407798</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>37541.26</v>
+      </c>
+      <c r="C83">
+        <v>18260.53842613629</v>
+      </c>
+      <c r="D83">
+        <v>2995.564</v>
+      </c>
+      <c r="E83">
+        <v>12.53228440453951</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>37072.68</v>
+      </c>
+      <c r="C84">
+        <v>17280.19594847234</v>
+      </c>
+      <c r="D84">
+        <v>3007.392</v>
+      </c>
+      <c r="E84">
+        <v>12.32718581415392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>37833.98</v>
+      </c>
+      <c r="C85">
+        <v>18112.8643168219</v>
+      </c>
+      <c r="D85">
+        <v>3000</v>
+      </c>
+      <c r="E85">
+        <v>12.61132666666667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>38126.16</v>
+      </c>
+      <c r="C86">
+        <v>18145.87057306428</v>
+      </c>
+      <c r="D86">
+        <v>3011.816</v>
+      </c>
+      <c r="E86">
+        <v>12.65886096627417</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>37178.52</v>
+      </c>
+      <c r="C87">
+        <v>18042.29285344853</v>
+      </c>
+      <c r="D87">
+        <v>3000.88</v>
+      </c>
+      <c r="E87">
+        <v>12.38920583295566</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>38181.48</v>
+      </c>
+      <c r="C88">
+        <v>17509.64660436069</v>
+      </c>
+      <c r="D88">
+        <v>3001.898</v>
+      </c>
+      <c r="E88">
+        <v>12.7191130411493</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>37434.74</v>
+      </c>
+      <c r="C89">
+        <v>17164.65158202752</v>
+      </c>
+      <c r="D89">
+        <v>3000</v>
+      </c>
+      <c r="E89">
+        <v>12.47824666666667</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>36759.52</v>
+      </c>
+      <c r="C90">
+        <v>17940.11546700857</v>
+      </c>
+      <c r="D90">
+        <v>3023.227</v>
+      </c>
+      <c r="E90">
+        <v>12.15903403879365</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>36192.88</v>
+      </c>
+      <c r="C91">
+        <v>17618.30908190681</v>
+      </c>
+      <c r="D91">
+        <v>3001.79</v>
+      </c>
+      <c r="E91">
+        <v>12.05709926410575</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>36536.9</v>
+      </c>
+      <c r="C92">
+        <v>16911.41021884337</v>
+      </c>
+      <c r="D92">
+        <v>3002.83</v>
+      </c>
+      <c r="E92">
+        <v>12.16748866902222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>37318.28</v>
+      </c>
+      <c r="C93">
+        <v>19084.80698989644</v>
+      </c>
+      <c r="D93">
+        <v>3000</v>
+      </c>
+      <c r="E93">
+        <v>12.43942666666667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>36411.92</v>
+      </c>
+      <c r="C94">
+        <v>16904.59659127067</v>
+      </c>
+      <c r="D94">
+        <v>3007.967</v>
+      </c>
+      <c r="E94">
+        <v>12.10515939835776</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>36650.78</v>
+      </c>
+      <c r="C95">
+        <v>18136.47406172434</v>
+      </c>
+      <c r="D95">
+        <v>3000.49</v>
+      </c>
+      <c r="E95">
+        <v>12.21493156117834</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>36557.9</v>
+      </c>
+      <c r="C96">
+        <v>17532.05596585865</v>
+      </c>
+      <c r="D96">
+        <v>3001.902</v>
+      </c>
+      <c r="E96">
+        <v>12.17824565891891</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>36911.76</v>
+      </c>
+      <c r="C97">
+        <v>18440.89412426632</v>
+      </c>
+      <c r="D97">
+        <v>3000</v>
+      </c>
+      <c r="E97">
+        <v>12.30392</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>32903.92</v>
+      </c>
+      <c r="C98">
+        <v>11771.22888374871</v>
+      </c>
+      <c r="D98">
+        <v>2764.056</v>
+      </c>
+      <c r="E98">
+        <v>11.90421612297291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>36065.6</v>
+      </c>
+      <c r="C99">
+        <v>12984.21631982462</v>
+      </c>
+      <c r="D99">
+        <v>2912.544</v>
+      </c>
+      <c r="E99">
+        <v>12.38285155520397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>38193.5</v>
+      </c>
+      <c r="C100">
+        <v>15138.10211849557</v>
+      </c>
+      <c r="D100">
+        <v>3010.862</v>
+      </c>
+      <c r="E100">
+        <v>12.6852376495502</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>38720.7</v>
+      </c>
+      <c r="C101">
+        <v>14469.51628458947</v>
+      </c>
+      <c r="D101">
+        <v>3000</v>
+      </c>
+      <c r="E101">
+        <v>12.9069</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>38838.8</v>
+      </c>
+      <c r="C102">
+        <v>14681.82634960651</v>
+      </c>
+      <c r="D102">
+        <v>3019.785</v>
+      </c>
+      <c r="E102">
+        <v>12.86144543402925</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>38776.64</v>
+      </c>
+      <c r="C103">
+        <v>14938.18564318974</v>
+      </c>
+      <c r="D103">
+        <v>3001.582</v>
+      </c>
+      <c r="E103">
+        <v>12.91873418750512</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>38063.44</v>
+      </c>
+      <c r="C104">
+        <v>14270.52355614187</v>
+      </c>
+      <c r="D104">
+        <v>3001.861</v>
+      </c>
+      <c r="E104">
+        <v>12.67994753920985</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>38054.62</v>
+      </c>
+      <c r="C105">
+        <v>14755.71242114728</v>
+      </c>
+      <c r="D105">
+        <v>3000</v>
+      </c>
+      <c r="E105">
+        <v>12.68487333333333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>35671.44</v>
+      </c>
+      <c r="C106">
+        <v>11788.63280988936</v>
+      </c>
+      <c r="D106">
+        <v>3030.954</v>
+      </c>
+      <c r="E106">
+        <v>11.76904697332919</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>34549.94</v>
+      </c>
+      <c r="C107">
+        <v>11956.17664625276</v>
+      </c>
+      <c r="D107">
+        <v>3002.338</v>
+      </c>
+      <c r="E107">
+        <v>11.50767834933975</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>35750.84</v>
+      </c>
+      <c r="C108">
+        <v>12691.86694282602</v>
+      </c>
+      <c r="D108">
+        <v>3003.594</v>
+      </c>
+      <c r="E108">
+        <v>11.90268724734435</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>35085.26</v>
+      </c>
+      <c r="C109">
+        <v>11691.13722151956</v>
+      </c>
+      <c r="D109">
+        <v>3000</v>
+      </c>
+      <c r="E109">
+        <v>11.69508666666667</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>35486.92</v>
+      </c>
+      <c r="C110">
+        <v>11791.46861563902</v>
+      </c>
+      <c r="D110">
+        <v>3007.467</v>
+      </c>
+      <c r="E110">
+        <v>11.79960411868193</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>35716.5</v>
+      </c>
+      <c r="C111">
+        <v>12199.79662740326</v>
+      </c>
+      <c r="D111">
+        <v>3000.479</v>
+      </c>
+      <c r="E111">
+        <v>11.90359939196375</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>35307.54</v>
+      </c>
+      <c r="C112">
+        <v>11945.22054833648</v>
+      </c>
+      <c r="D112">
+        <v>3001.821</v>
+      </c>
+      <c r="E112">
+        <v>11.76204044145204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>35388.94</v>
+      </c>
+      <c r="C113">
+        <v>11331.55317140594</v>
+      </c>
+      <c r="D113">
+        <v>3000</v>
+      </c>
+      <c r="E113">
+        <v>11.79631333333333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>35423.6</v>
+      </c>
+      <c r="C114">
+        <v>11047.55175774253</v>
+      </c>
+      <c r="D114">
+        <v>3057.497</v>
+      </c>
+      <c r="E114">
+        <v>11.58581676449723</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>35536.06</v>
+      </c>
+      <c r="C115">
+        <v>10991.8698353101</v>
+      </c>
+      <c r="D115">
+        <v>3005.305</v>
+      </c>
+      <c r="E115">
+        <v>11.82444377525742</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>36215.68</v>
+      </c>
+      <c r="C116">
+        <v>11102.65235597332</v>
+      </c>
+      <c r="D116">
+        <v>3005.641</v>
+      </c>
+      <c r="E116">
+        <v>12.04923675182765</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>35503.1</v>
+      </c>
+      <c r="C117">
+        <v>11334.09879919881</v>
+      </c>
+      <c r="D117">
+        <v>3000</v>
+      </c>
+      <c r="E117">
+        <v>11.83436666666667</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>35789.6</v>
+      </c>
+      <c r="C118">
+        <v>11207.1945035321</v>
+      </c>
+      <c r="D118">
+        <v>3010.31</v>
+      </c>
+      <c r="E118">
+        <v>11.88900810879943</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>35991.98</v>
+      </c>
+      <c r="C119">
+        <v>11084.84915908196</v>
+      </c>
+      <c r="D119">
+        <v>3000.774</v>
+      </c>
+      <c r="E119">
+        <v>11.99423215477074</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>35771.56</v>
+      </c>
+      <c r="C120">
+        <v>10902.75660401533</v>
+      </c>
+      <c r="D120">
+        <v>3001.835</v>
+      </c>
+      <c r="E120">
+        <v>11.91656436812816</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>35749.92</v>
+      </c>
+      <c r="C121">
+        <v>10995.86900584033</v>
+      </c>
+      <c r="D121">
+        <v>3000</v>
+      </c>
+      <c r="E121">
+        <v>11.91664</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>35068.38</v>
+      </c>
+      <c r="C122">
+        <v>10718.810856415</v>
+      </c>
+      <c r="D122">
+        <v>3022.948</v>
+      </c>
+      <c r="E122">
+        <v>11.60072220891659</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>34625.3</v>
+      </c>
+      <c r="C123">
+        <v>10907.80067245455</v>
+      </c>
+      <c r="D123">
+        <v>3001.683</v>
+      </c>
+      <c r="E123">
+        <v>11.53529536596636</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>34919.12</v>
+      </c>
+      <c r="C124">
+        <v>10596.68287841058</v>
+      </c>
+      <c r="D124">
+        <v>3002.918</v>
+      </c>
+      <c r="E124">
+        <v>11.62839611338039</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>35614.28</v>
+      </c>
+      <c r="C125">
+        <v>10704.18774506501</v>
+      </c>
+      <c r="D125">
+        <v>3000</v>
+      </c>
+      <c r="E125">
+        <v>11.87142666666667</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>35122.26</v>
+      </c>
+      <c r="C126">
+        <v>10851.66280771753</v>
+      </c>
+      <c r="D126">
+        <v>3007.296</v>
+      </c>
+      <c r="E126">
+        <v>11.67901663155207</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>34502.2</v>
+      </c>
+      <c r="C127">
+        <v>10765.96224960872</v>
+      </c>
+      <c r="D127">
+        <v>3000.515</v>
+      </c>
+      <c r="E127">
+        <v>11.49875937963983</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>35801.42</v>
+      </c>
+      <c r="C128">
+        <v>10329.92390986497</v>
+      </c>
+      <c r="D128">
+        <v>3001.822</v>
+      </c>
+      <c r="E128">
+        <v>11.92656326724236</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>34833.26</v>
+      </c>
+      <c r="C129">
+        <v>10669.01302709862</v>
+      </c>
+      <c r="D129">
+        <v>3000</v>
+      </c>
+      <c r="E129">
+        <v>11.61108666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/player_stats.xlsx
+++ b/player_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yam/dev/2025-gamble-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3209C68D-0C11-7D47-8D21-12D474DC993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F97F070-B370-154B-8A99-70D48126D205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="1680" windowWidth="35240" windowHeight="18380" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level 1" sheetId="1" r:id="rId1"/>
@@ -218,13 +218,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -239,13 +239,13 @@
                   <c:v>11.573362996555931</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>11.94933333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>12.047114954525121</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>12.582048593293321</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.94933333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -543,22 +543,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,22 +576,22 @@
                   <c:v>11.07724032098213</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>11.339915373765869</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>11.404730585795329</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>12.13958244567533</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.339915373765869</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.253803738170101</c:v>
+                  <c:v>12.2135526831179</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12.22900445260713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.2135526831179</c:v>
+                  <c:v>12.253803738170101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -883,52 +883,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,52 +940,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>10.57306805126867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.95551392900315</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>11.08673136675745</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>11.102583283947499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.251252775134789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.26806895461015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.35118845581635</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.43913231337894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.692595535279491</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>12.64983860855026</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
+                  <c:v>12.94999169297226</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.282460647923269</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.374249358482579</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.43487189846144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.83711760707002</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>13.844194228952659</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.94999169297226</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.374249358482579</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.43487189846144</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.282460647923269</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.83711760707002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.57306805126867</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.102583283947499</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.35118845581635</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.26806895461015</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.95551392900315</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.692595535279491</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.43913231337894</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.251252775134789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,100 +1277,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="27">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="31">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,100 +1382,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>10.85815361896249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.04668941177435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.060682685057159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.1490433159933</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.15973629266988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.210006548788471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.248726405237409</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.254940173216241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.27326210262498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.341175018228251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.34384951605872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.482655648624069</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.581452892606441</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.810929266496499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.054554946489169</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.07778639772433</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.09148584676468</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.117156828712041</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.121590915109881</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.20867989135604</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.26048972248307</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.43509203880212</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.457040998217471</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.768359700249791</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>12.895469548061151</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="25">
+                  <c:v>13.798889433594841</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>14.181428721430819</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.798889433594841</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="27">
                   <c:v>15.119634703196351</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="28">
+                  <c:v>15.251318150448579</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.551878686049839</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>15.56141093764726</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.551878686049839</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="31">
                   <c:v>15.57103624001369</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.251318150448579</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.581452892606441</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.810929266496499</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.09148584676468</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.768359700249791</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.482655648624069</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.04668941177435</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12.26048972248307</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.457040998217471</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.254940173216241</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.34384951605872</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.117156828712041</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.07778639772433</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12.20867989135604</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12.121590915109881</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.43509203880212</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12.054554946489169</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11.1490433159933</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10.85815361896249</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11.060682685057159</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11.27326210262498</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11.341175018228251</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11.15973629266988</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>11.248726405237409</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11.210006548788471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1767,196 +1767,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="49">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,196 +1968,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>12.91086056525358</c:v>
+                  <c:v>11.36823263874251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.99812067951623</c:v>
+                  <c:v>11.43190053173935</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.62708521207631</c:v>
+                  <c:v>11.44385683032915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.804268045535441</c:v>
+                  <c:v>11.463277310592851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.0991293464213</c:v>
+                  <c:v>11.465564604028391</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.219822565008101</c:v>
+                  <c:v>11.520814831608019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.128291942044239</c:v>
+                  <c:v>11.685477938281631</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.915539823008849</c:v>
+                  <c:v>11.69638985005767</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.66826888915123</c:v>
+                  <c:v>11.72835487017864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.203132762603451</c:v>
+                  <c:v>11.77521528371828</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.506156527225439</c:v>
+                  <c:v>11.794879029732281</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.456654846335701</c:v>
+                  <c:v>11.79707100596813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.351214161744441</c:v>
+                  <c:v>11.838253330368421</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.75062829582928</c:v>
+                  <c:v>11.883283724347679</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.36060786264801</c:v>
+                  <c:v>11.891389830508469</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.491370851370849</c:v>
+                  <c:v>11.94525845346554</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>11.980993659605421</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.01612456747405</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.036894901977201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.06598434356251</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.12479129906437</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.148483320156931</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.1558416400065</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.219507315019159</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.24371696504689</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.254567235699311</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.26167231638418</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.283940924155139</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>12.372173999437379</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.947961003440771</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.89046388981153</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.26221829949985</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.036627524843199</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12.9990497315162</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13.082935205655261</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.368266428783819</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
+                  <c:v>12.376024067306719</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.384933214603739</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>12.60771082848267</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>12.219507315019159</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>12.615659095096721</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>12.254567235699311</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12.283940924155139</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>12.70617738443044</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12.376024067306719</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.384933214603739</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>12.06598434356251</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12.96038752393626</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>12.80054331972608</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>12.89046388981153</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.91086056525358</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.947961003440771</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.96038752393626</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.9990497315162</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.00116849416762</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.036627524843199</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.082935205655261</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.203132762603451</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.213210513468439</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.26221829949985</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.368266428783819</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13.456654846335701</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>13.45712185467911</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>13.213210513468439</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13.00116849416762</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="49">
+                  <c:v>13.491370851370849</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.66826888915123</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.694566210045661</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>13.70008744719699</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>13.694566210045661</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11.685477938281631</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>11.94525845346554</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.794879029732281</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12.24371696504689</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11.72835487017864</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12.12479129906437</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.838253330368421</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12.26167231638418</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>11.465564604028391</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12.148483320156931</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>11.980993659605421</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11.891389830508469</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12.1558416400065</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>12.036894901977201</c:v>
+                  <c:v>13.75062829582928</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11.883283724347679</c:v>
+                  <c:v>14.351214161744441</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12.01612456747405</c:v>
+                  <c:v>14.36060786264801</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>11.43190053173935</c:v>
+                  <c:v>14.506156527225439</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.44385683032915</c:v>
+                  <c:v>16.99812067951623</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>11.463277310592851</c:v>
+                  <c:v>17.128291942044239</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>11.69638985005767</c:v>
+                  <c:v>17.62708521207631</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>11.79707100596813</c:v>
+                  <c:v>17.804268045535441</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>11.520814831608019</c:v>
+                  <c:v>17.915539823008849</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>11.36823263874251</c:v>
+                  <c:v>18.0991293464213</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>11.77521528371828</c:v>
+                  <c:v>18.219822565008101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2449,388 +2449,388 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
                 <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="87">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="122">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="126">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2842,388 +2842,388 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
                 <c:pt idx="0">
+                  <c:v>11.49875937963983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.50767834933975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.535295365966361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.585816764497229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.60072220891659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.611086666666671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.62839611338039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.67901663155207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.69508666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.76204044145204</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.769046973329189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.79631333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.79960411868193</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.82444377525742</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.83436666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.87142666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.88900810879943</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.90268724734435</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.90359939196375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.90421612297291</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.91656436812816</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.916639999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.92656326724236</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.99423215477074</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.04923675182765</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.05709926410575</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.10454091407798</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.10515939835776</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.159034038793649</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.167488669022219</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.178245658918909</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.214931561178339</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.30392</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.327185814153919</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.38285155520397</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.38920583295566</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.43942666666667</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.478246666666671</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.53228440453951</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.533076858139459</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.57248602943328</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.61132666666667</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.658860966274171</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.67994753920985</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.68487333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.685237649550199</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.704929037175569</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.719113041149299</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.85195530419443</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.86144543402925</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.9069</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.91873418750512</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.981120000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.09574474810923</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.105486666666669</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.130800146510721</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.455185547336519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.83484146737753</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15.00033524750345</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15.08202237683091</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.14294757563955</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.392562831099241</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.59706068479205</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15.627718944500449</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15.691700000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15.77248691525925</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15.82388821130345</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.099317903421269</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.137613333333331</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.170986666666671</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.233843410094401</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16.294519999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16.364007688215519</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.383814051910289</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16.414748521735419</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16.440225821285441</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.48715818285639</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16.607217157330268</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16.612426666666671</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16.719073333333331</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16.73589324495596</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16.753596547314579</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16.79077607803422</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16.83988842228581</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.847572342118859</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16.951363543762429</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>16.96492419184581</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="87">
+                  <c:v>17.069589772682221</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17.101193333333331</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17.113724586442729</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17.1976017170586</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>17.588519999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17.911127073136239</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17.984766453150051</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18.055698158742931</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18.10776427979075</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18.121466352968142</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>18.638942102898699</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18.669495527580221</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>18.85702666666667</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>18.882006666666669</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>18.920291064488111</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>18.950054179623269</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>19.305915533906958</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>19.370719376377249</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>19.6242563427604</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>19.75485876414232</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>19.773422200903269</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>19.918255831193989</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>20.03370553329729</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>20.07124</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>20.18521488266526</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>20.395940644265931</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>20.534897577326589</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>20.883173333333328</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>20.91970666666667</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>20.93238807352347</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>21.087311542281721</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>21.107372764282509</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>21.213593140035371</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>21.47641485433687</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>22.999585201243899</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="122">
+                  <c:v>26.517853688361129</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>27.075153435188181</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>27.43069585385367</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>28.056152673091461</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.517853688361129</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.075153435188181</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="126">
+                  <c:v>28.455806520677449</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>28.601899458241721</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.43069585385367</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.455806520677449</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.534897577326589</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.087311542281721</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.395940644265931</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.213593140035371</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21.47641485433687</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.107372764282509</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.93238807352347</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.91970666666667</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.305915533906958</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19.773422200903269</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.18521488266526</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.883173333333328</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19.75485876414232</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.918255831193989</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>19.6242563427604</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18.85702666666667</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19.370719376377249</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>18.920291064488111</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18.950054179623269</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18.882006666666669</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18.638942102898699</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18.669495527580221</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20.03370553329729</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20.07124</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16.099317903421269</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16.83988842228581</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>17.911127073136239</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18.10776427979075</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>18.055698158742931</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>18.121466352968142</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>17.984766453150051</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>17.588519999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>16.364007688215519</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>17.113724586442729</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>16.951363543762429</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>17.101193333333331</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>16.73589324495596</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>17.1976017170586</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>17.069589772682221</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>16.612426666666671</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15.59706068479205</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16.233843410094401</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>16.383814051910289</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>16.137613333333331</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>16.847572342118859</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>16.414748521735419</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>16.79077607803422</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>16.170986666666671</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>15.82388821130345</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>16.48715818285639</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>16.753596547314579</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>16.719073333333331</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>16.440225821285441</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>15.627718944500449</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>16.607217157330268</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>16.294519999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>12.85195530419443</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>13.83484146737753</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>15.00033524750345</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>15.14294757563955</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>15.08202237683091</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>15.392562831099241</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>15.77248691525925</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>15.691700000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>12.533076858139459</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>13.455185547336519</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>13.09574474810923</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>12.981120000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>12.57248602943328</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>13.130800146510721</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>12.704929037175569</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>13.105486666666669</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>12.10454091407798</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>12.53228440453951</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>12.327185814153919</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>12.61132666666667</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>12.658860966274171</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>12.38920583295566</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>12.719113041149299</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>12.478246666666671</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>12.159034038793649</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>12.05709926410575</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>12.167488669022219</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>12.43942666666667</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>12.10515939835776</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>12.214931561178339</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>12.178245658918909</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>12.30392</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>11.90421612297291</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>12.38285155520397</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>12.685237649550199</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>12.9069</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>12.86144543402925</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>12.91873418750512</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>12.67994753920985</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>12.68487333333333</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>11.769046973329189</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>11.50767834933975</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>11.90268724734435</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>11.69508666666667</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>11.79960411868193</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>11.90359939196375</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>11.76204044145204</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>11.79631333333333</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>11.585816764497229</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>11.82444377525742</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>12.04923675182765</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>11.83436666666667</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>11.88900810879943</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>11.99423215477074</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>11.91656436812816</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>11.916639999999999</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>11.60072220891659</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>11.535295365966361</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>11.62839611338039</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>11.87142666666667</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>11.67901663155207</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>11.49875937963983</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>11.92656326724236</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>11.611086666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7287,7 +7287,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="129" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7335,7 +7335,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7400,8 +7400,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView zoomScale="147" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7442,56 +7442,59 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>484.8</v>
+        <v>537.72</v>
       </c>
       <c r="C3">
-        <v>366.97051652687321</v>
+        <v>216.2711298347516</v>
       </c>
       <c r="D3">
-        <v>40.241999999999997</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>12.047114954525121</v>
+        <v>11.94933333333333</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>563.94000000000005</v>
+        <v>484.8</v>
       </c>
       <c r="C4">
-        <v>246.0277959906156</v>
+        <v>366.97051652687321</v>
       </c>
       <c r="D4">
-        <v>44.820999999999998</v>
+        <v>40.241999999999997</v>
       </c>
       <c r="E4">
-        <v>12.582048593293321</v>
+        <v>12.047114954525121</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>537.72</v>
+        <v>563.94000000000005</v>
       </c>
       <c r="C5">
-        <v>216.2711298347516</v>
+        <v>246.0277959906156</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>44.820999999999998</v>
       </c>
       <c r="E5">
-        <v>11.94933333333333</v>
+        <v>12.582048593293321</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
+    <sortCondition ref="E1:E5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7502,8 +7505,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="A1:A1048576 E1:E1048576"/>
+    <sheetView zoomScale="151" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7561,70 +7564,70 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>1413.24</v>
+        <v>1583.88</v>
       </c>
       <c r="C4">
-        <v>1027.859865156724</v>
+        <v>735.99466411109267</v>
       </c>
       <c r="D4">
-        <v>123.917</v>
+        <v>139.673</v>
       </c>
       <c r="E4">
-        <v>11.404730585795329</v>
+        <v>11.339915373765869</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1424.58</v>
+        <v>1413.24</v>
       </c>
       <c r="C5">
-        <v>1097.916309925306</v>
+        <v>1027.859865156724</v>
       </c>
       <c r="D5">
-        <v>117.35</v>
+        <v>123.917</v>
       </c>
       <c r="E5">
-        <v>12.13958244567533</v>
+        <v>11.404730585795329</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1583.88</v>
+        <v>1424.58</v>
       </c>
       <c r="C6">
-        <v>735.99466411109267</v>
+        <v>1097.916309925306</v>
       </c>
       <c r="D6">
-        <v>139.673</v>
+        <v>117.35</v>
       </c>
       <c r="E6">
-        <v>11.339915373765869</v>
+        <v>12.13958244567533</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1551.16</v>
+        <v>1559.06</v>
       </c>
       <c r="C7">
-        <v>647.95636766683606</v>
+        <v>603.01601670270747</v>
       </c>
       <c r="D7">
-        <v>126.586</v>
+        <v>127.65</v>
       </c>
       <c r="E7">
-        <v>12.253803738170101</v>
+        <v>12.2135526831179</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -7646,22 +7649,25 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>1559.06</v>
+        <v>1551.16</v>
       </c>
       <c r="C9">
-        <v>603.01601670270747</v>
+        <v>647.95636766683606</v>
       </c>
       <c r="D9">
-        <v>127.65</v>
+        <v>126.586</v>
       </c>
       <c r="E9">
-        <v>12.2135526831179</v>
+        <v>12.253803738170101</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
+    <sortCondition ref="E1:E9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7672,8 +7678,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="A1:A1048576 E1:E1048576"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7697,277 +7703,280 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>4046.28</v>
+        <v>3524.86</v>
       </c>
       <c r="C2">
-        <v>3979.0089923999922</v>
+        <v>1715.3831001849121</v>
       </c>
       <c r="D2">
-        <v>364.96600000000001</v>
+        <v>333.38099999999997</v>
       </c>
       <c r="E2">
-        <v>11.08673136675745</v>
+        <v>10.57306805126867</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>3813.18</v>
+        <v>3561.78</v>
       </c>
       <c r="C3">
-        <v>3737.2281021634199</v>
+        <v>1377.6683314934689</v>
       </c>
       <c r="D3">
-        <v>301.44099999999997</v>
+        <v>325.113</v>
       </c>
       <c r="E3">
-        <v>12.64983860855026</v>
+        <v>10.95551392900315</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>4206.24</v>
+        <v>4046.28</v>
       </c>
       <c r="C4">
-        <v>3773.9366532044492</v>
+        <v>3979.0089923999922</v>
       </c>
       <c r="D4">
-        <v>303.827</v>
+        <v>364.96600000000001</v>
       </c>
       <c r="E4">
-        <v>13.844194228952659</v>
+        <v>11.08673136675745</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>3897.3</v>
+        <v>3428.4</v>
       </c>
       <c r="C5">
-        <v>3651.3798364453951</v>
+        <v>1630.5956702996609</v>
       </c>
       <c r="D5">
-        <v>300.95</v>
+        <v>308.79300000000001</v>
       </c>
       <c r="E5">
-        <v>12.94999169297226</v>
+        <v>11.102583283947499</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>4044.48</v>
+        <v>3547.52</v>
       </c>
       <c r="C6">
-        <v>3008.9053041928719</v>
+        <v>1278.03515194223</v>
       </c>
       <c r="D6">
-        <v>302.40800000000002</v>
+        <v>315.3</v>
       </c>
       <c r="E6">
-        <v>13.374249358482579</v>
+        <v>11.251252775134789</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>3990.56</v>
+        <v>3562.4</v>
       </c>
       <c r="C7">
-        <v>3122.26617801878</v>
+        <v>1453.7446268172409</v>
       </c>
       <c r="D7">
-        <v>297.02999999999997</v>
+        <v>316.14999999999998</v>
       </c>
       <c r="E7">
-        <v>13.43487189846144</v>
+        <v>11.26806895461015</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>3965.12</v>
+        <v>3578.36</v>
       </c>
       <c r="C8">
-        <v>3071.6351647941519</v>
+        <v>1453.6793698749391</v>
       </c>
       <c r="D8">
-        <v>298.52300000000002</v>
+        <v>315.24099999999999</v>
       </c>
       <c r="E8">
-        <v>13.282460647923269</v>
+        <v>11.35118845581635</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>4070.88</v>
+        <v>3627.04</v>
       </c>
       <c r="C9">
-        <v>3246.917680755088</v>
+        <v>1276.4331703618491</v>
       </c>
       <c r="D9">
-        <v>294.2</v>
+        <v>317.07299999999998</v>
       </c>
       <c r="E9">
-        <v>13.83711760707002</v>
+        <v>11.43913231337894</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>3524.86</v>
+        <v>3649.68</v>
       </c>
       <c r="C10">
-        <v>1715.3831001849121</v>
+        <v>1285.1990887018239</v>
       </c>
       <c r="D10">
-        <v>333.38099999999997</v>
+        <v>312.13600000000002</v>
       </c>
       <c r="E10">
-        <v>10.57306805126867</v>
+        <v>11.692595535279491</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>3428.4</v>
+        <v>3813.18</v>
       </c>
       <c r="C11">
-        <v>1630.5956702996609</v>
+        <v>3737.2281021634199</v>
       </c>
       <c r="D11">
-        <v>308.79300000000001</v>
+        <v>301.44099999999997</v>
       </c>
       <c r="E11">
-        <v>11.102583283947499</v>
+        <v>12.64983860855026</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>3578.36</v>
+        <v>3897.3</v>
       </c>
       <c r="C12">
-        <v>1453.6793698749391</v>
+        <v>3651.3798364453951</v>
       </c>
       <c r="D12">
-        <v>315.24099999999999</v>
+        <v>300.95</v>
       </c>
       <c r="E12">
-        <v>11.35118845581635</v>
+        <v>12.94999169297226</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>3562.4</v>
+        <v>3965.12</v>
       </c>
       <c r="C13">
-        <v>1453.7446268172409</v>
+        <v>3071.6351647941519</v>
       </c>
       <c r="D13">
-        <v>316.14999999999998</v>
+        <v>298.52300000000002</v>
       </c>
       <c r="E13">
-        <v>11.26806895461015</v>
+        <v>13.282460647923269</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>3561.78</v>
+        <v>4044.48</v>
       </c>
       <c r="C14">
-        <v>1377.6683314934689</v>
+        <v>3008.9053041928719</v>
       </c>
       <c r="D14">
-        <v>325.113</v>
+        <v>302.40800000000002</v>
       </c>
       <c r="E14">
-        <v>10.95551392900315</v>
+        <v>13.374249358482579</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>3649.68</v>
+        <v>3990.56</v>
       </c>
       <c r="C15">
-        <v>1285.1990887018239</v>
+        <v>3122.26617801878</v>
       </c>
       <c r="D15">
-        <v>312.13600000000002</v>
+        <v>297.02999999999997</v>
       </c>
       <c r="E15">
-        <v>11.692595535279491</v>
+        <v>13.43487189846144</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>3627.04</v>
+        <v>4070.88</v>
       </c>
       <c r="C16">
-        <v>1276.4331703618491</v>
+        <v>3246.917680755088</v>
       </c>
       <c r="D16">
-        <v>317.07299999999998</v>
+        <v>294.2</v>
       </c>
       <c r="E16">
-        <v>11.43913231337894</v>
+        <v>13.83711760707002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>3547.52</v>
+        <v>4206.24</v>
       </c>
       <c r="C17">
-        <v>1278.03515194223</v>
+        <v>3773.9366532044492</v>
       </c>
       <c r="D17">
-        <v>315.3</v>
+        <v>303.827</v>
       </c>
       <c r="E17">
-        <v>11.251252775134789</v>
+        <v>13.844194228952659</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+    <sortCondition ref="E1:E17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7978,8 +7987,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="A1:A1048576 E1:E1048576"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8003,549 +8012,552 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>9791.0400000000009</v>
+        <v>8661.56</v>
       </c>
       <c r="C2">
-        <v>7241.4119423217453</v>
+        <v>3218.05008761517</v>
       </c>
       <c r="D2">
-        <v>759.26199999999994</v>
+        <v>797.70100000000002</v>
       </c>
       <c r="E2">
-        <v>12.895469548061151</v>
+        <v>10.85815361896249</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>10129.44</v>
+        <v>8084.84</v>
       </c>
       <c r="C3">
-        <v>9358.6481762271633</v>
+        <v>6101.7430767281567</v>
       </c>
       <c r="D3">
-        <v>714.27499999999998</v>
+        <v>731.87900000000002</v>
       </c>
       <c r="E3">
-        <v>14.181428721430819</v>
+        <v>11.04668941177435</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>10161.24</v>
+        <v>8551.6</v>
       </c>
       <c r="C4">
-        <v>9962.2693831475972</v>
+        <v>3199.5669456974961</v>
       </c>
       <c r="D4">
-        <v>736.38099999999997</v>
+        <v>773.15300000000002</v>
       </c>
       <c r="E4">
-        <v>13.798889433594841</v>
+        <v>11.060682685057159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>10926.96</v>
+        <v>8722.9</v>
       </c>
       <c r="C5">
-        <v>10760.79459698028</v>
+        <v>3453.627077436126</v>
       </c>
       <c r="D5">
-        <v>722.7</v>
+        <v>782.39</v>
       </c>
       <c r="E5">
-        <v>15.119634703196351</v>
+        <v>11.1490433159933</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>11723.08</v>
+        <v>8680.4</v>
       </c>
       <c r="C6">
-        <v>10423.798353460221</v>
+        <v>3156.7219453097232</v>
       </c>
       <c r="D6">
-        <v>753.34299999999996</v>
+        <v>777.83199999999999</v>
       </c>
       <c r="E6">
-        <v>15.56141093764726</v>
+        <v>11.15973629266988</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>10940.7</v>
+        <v>8558.84</v>
       </c>
       <c r="C7">
-        <v>9919.4379230881823</v>
+        <v>3108.3992430831659</v>
       </c>
       <c r="D7">
-        <v>703.49699999999996</v>
+        <v>763.5</v>
       </c>
       <c r="E7">
-        <v>15.551878686049839</v>
+        <v>11.210006548788471</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>11464.3</v>
+        <v>8666.66</v>
       </c>
       <c r="C8">
-        <v>10253.453638165051</v>
+        <v>3113.7529838444152</v>
       </c>
       <c r="D8">
-        <v>736.25800000000004</v>
+        <v>770.45699999999999</v>
       </c>
       <c r="E8">
-        <v>15.57103624001369</v>
+        <v>11.248726405237409</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>11049.58</v>
+        <v>9298.1</v>
       </c>
       <c r="C9">
-        <v>9679.8259810597829</v>
+        <v>4500.9536756114258</v>
       </c>
       <c r="D9">
-        <v>724.5</v>
+        <v>826.13499999999999</v>
       </c>
       <c r="E9">
-        <v>15.251318150448579</v>
+        <v>11.254940173216241</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>8612.2000000000007</v>
+        <v>8546.26</v>
       </c>
       <c r="C10">
-        <v>7010.0649897130052</v>
+        <v>3258.588714827325</v>
       </c>
       <c r="D10">
-        <v>743.62</v>
+        <v>758.1</v>
       </c>
       <c r="E10">
-        <v>11.581452892606441</v>
+        <v>11.27326210262498</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>8259.56</v>
+        <v>8819.34</v>
       </c>
       <c r="C11">
-        <v>6101.2210422504768</v>
+        <v>3147.527150701007</v>
       </c>
       <c r="D11">
-        <v>699.31500000000005</v>
+        <v>777.63900000000001</v>
       </c>
       <c r="E11">
-        <v>11.810929266496499</v>
+        <v>11.341175018228251</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>8709.86</v>
+        <v>8873.42</v>
       </c>
       <c r="C12">
-        <v>6302.1077728328319</v>
+        <v>4405.501685801516</v>
       </c>
       <c r="D12">
-        <v>720.33</v>
+        <v>782.22299999999996</v>
       </c>
       <c r="E12">
-        <v>12.09148584676468</v>
+        <v>11.34384951605872</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>9200.8799999999992</v>
+        <v>8359.58</v>
       </c>
       <c r="C13">
-        <v>7255.6110166959752</v>
+        <v>6537.8847514773452</v>
       </c>
       <c r="D13">
-        <v>720.6</v>
+        <v>728.01800000000003</v>
       </c>
       <c r="E13">
-        <v>12.768359700249791</v>
+        <v>11.482655648624069</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>8359.58</v>
+        <v>8612.2000000000007</v>
       </c>
       <c r="C14">
-        <v>6537.8847514773452</v>
+        <v>7010.0649897130052</v>
       </c>
       <c r="D14">
-        <v>728.01800000000003</v>
+        <v>743.62</v>
       </c>
       <c r="E14">
-        <v>11.482655648624069</v>
+        <v>11.581452892606441</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>8084.84</v>
+        <v>8259.56</v>
       </c>
       <c r="C15">
-        <v>6101.7430767281567</v>
+        <v>6101.2210422504768</v>
       </c>
       <c r="D15">
-        <v>731.87900000000002</v>
+        <v>699.31500000000005</v>
       </c>
       <c r="E15">
-        <v>11.04668941177435</v>
+        <v>11.810929266496499</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>8695.36</v>
+        <v>9236.2000000000007</v>
       </c>
       <c r="C16">
-        <v>6244.4249111027029</v>
+        <v>3887.6567698293529</v>
       </c>
       <c r="D16">
-        <v>709.21799999999996</v>
+        <v>766.2</v>
       </c>
       <c r="E16">
-        <v>12.26048972248307</v>
+        <v>12.054554946489169</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>9084.92</v>
+        <v>9340.9599999999991</v>
       </c>
       <c r="C17">
-        <v>6484.5495598075277</v>
+        <v>4481.9488482578654</v>
       </c>
       <c r="D17">
-        <v>729.3</v>
+        <v>773.4</v>
       </c>
       <c r="E17">
-        <v>12.457040998217471</v>
+        <v>12.07778639772433</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>9298.1</v>
+        <v>8709.86</v>
       </c>
       <c r="C18">
-        <v>4500.9536756114258</v>
+        <v>6302.1077728328319</v>
       </c>
       <c r="D18">
-        <v>826.13499999999999</v>
+        <v>720.33</v>
       </c>
       <c r="E18">
-        <v>11.254940173216241</v>
+        <v>12.09148584676468</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>8873.42</v>
+        <v>9250.08</v>
       </c>
       <c r="C19">
-        <v>4405.501685801516</v>
+        <v>4595.9381189915948</v>
       </c>
       <c r="D19">
-        <v>782.22299999999996</v>
+        <v>763.38699999999994</v>
       </c>
       <c r="E19">
-        <v>11.34384951605872</v>
+        <v>12.117156828712041</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>9250.08</v>
+        <v>9154.08</v>
       </c>
       <c r="C20">
-        <v>4595.9381189915948</v>
+        <v>4215.9464125626646</v>
       </c>
       <c r="D20">
-        <v>763.38699999999994</v>
+        <v>755.18799999999999</v>
       </c>
       <c r="E20">
-        <v>12.117156828712041</v>
+        <v>12.121590915109881</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>9340.9599999999991</v>
+        <v>9241.58</v>
       </c>
       <c r="C21">
-        <v>4481.9488482578654</v>
+        <v>4136.9808681694431</v>
       </c>
       <c r="D21">
-        <v>773.4</v>
+        <v>756.96799999999996</v>
       </c>
       <c r="E21">
-        <v>12.07778639772433</v>
+        <v>12.20867989135604</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>9241.58</v>
+        <v>8695.36</v>
       </c>
       <c r="C22">
-        <v>4136.9808681694431</v>
+        <v>6244.4249111027029</v>
       </c>
       <c r="D22">
-        <v>756.96799999999996</v>
+        <v>709.21799999999996</v>
       </c>
       <c r="E22">
-        <v>12.20867989135604</v>
+        <v>12.26048972248307</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>9154.08</v>
+        <v>9414.26</v>
       </c>
       <c r="C23">
-        <v>4215.9464125626646</v>
+        <v>4146.4102368675494</v>
       </c>
       <c r="D23">
-        <v>755.18799999999999</v>
+        <v>757.072</v>
       </c>
       <c r="E23">
-        <v>12.121590915109881</v>
+        <v>12.43509203880212</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>9414.26</v>
+        <v>9084.92</v>
       </c>
       <c r="C24">
-        <v>4146.4102368675494</v>
+        <v>6484.5495598075277</v>
       </c>
       <c r="D24">
-        <v>757.072</v>
+        <v>729.3</v>
       </c>
       <c r="E24">
-        <v>12.43509203880212</v>
+        <v>12.457040998217471</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>9236.2000000000007</v>
+        <v>9200.8799999999992</v>
       </c>
       <c r="C25">
-        <v>3887.6567698293529</v>
+        <v>7255.6110166959752</v>
       </c>
       <c r="D25">
-        <v>766.2</v>
+        <v>720.6</v>
       </c>
       <c r="E25">
-        <v>12.054554946489169</v>
+        <v>12.768359700249791</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>8722.9</v>
+        <v>9791.0400000000009</v>
       </c>
       <c r="C26">
-        <v>3453.627077436126</v>
+        <v>7241.4119423217453</v>
       </c>
       <c r="D26">
-        <v>782.39</v>
+        <v>759.26199999999994</v>
       </c>
       <c r="E26">
-        <v>11.1490433159933</v>
+        <v>12.895469548061151</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>8661.56</v>
+        <v>10161.24</v>
       </c>
       <c r="C27">
-        <v>3218.05008761517</v>
+        <v>9962.2693831475972</v>
       </c>
       <c r="D27">
-        <v>797.70100000000002</v>
+        <v>736.38099999999997</v>
       </c>
       <c r="E27">
-        <v>10.85815361896249</v>
+        <v>13.798889433594841</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>8551.6</v>
+        <v>10129.44</v>
       </c>
       <c r="C28">
-        <v>3199.5669456974961</v>
+        <v>9358.6481762271633</v>
       </c>
       <c r="D28">
-        <v>773.15300000000002</v>
+        <v>714.27499999999998</v>
       </c>
       <c r="E28">
-        <v>11.060682685057159</v>
+        <v>14.181428721430819</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>8546.26</v>
+        <v>10926.96</v>
       </c>
       <c r="C29">
-        <v>3258.588714827325</v>
+        <v>10760.79459698028</v>
       </c>
       <c r="D29">
-        <v>758.1</v>
+        <v>722.7</v>
       </c>
       <c r="E29">
-        <v>11.27326210262498</v>
+        <v>15.119634703196351</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>8819.34</v>
+        <v>11049.58</v>
       </c>
       <c r="C30">
-        <v>3147.527150701007</v>
+        <v>9679.8259810597829</v>
       </c>
       <c r="D30">
-        <v>777.63900000000001</v>
+        <v>724.5</v>
       </c>
       <c r="E30">
-        <v>11.341175018228251</v>
+        <v>15.251318150448579</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>8680.4</v>
+        <v>10940.7</v>
       </c>
       <c r="C31">
-        <v>3156.7219453097232</v>
+        <v>9919.4379230881823</v>
       </c>
       <c r="D31">
-        <v>777.83199999999999</v>
+        <v>703.49699999999996</v>
       </c>
       <c r="E31">
-        <v>11.15973629266988</v>
+        <v>15.551878686049839</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>8666.66</v>
+        <v>11723.08</v>
       </c>
       <c r="C32">
-        <v>3113.7529838444152</v>
+        <v>10423.798353460221</v>
       </c>
       <c r="D32">
-        <v>770.45699999999999</v>
+        <v>753.34299999999996</v>
       </c>
       <c r="E32">
-        <v>11.248726405237409</v>
+        <v>15.56141093764726</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B33">
-        <v>8558.84</v>
+        <v>11464.3</v>
       </c>
       <c r="C33">
-        <v>3108.3992430831659</v>
+        <v>10253.453638165051</v>
       </c>
       <c r="D33">
-        <v>763.5</v>
+        <v>736.25800000000004</v>
       </c>
       <c r="E33">
-        <v>11.210006548788471</v>
+        <v>15.57103624001369</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E33">
+    <sortCondition ref="E1:E33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8556,8 +8568,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="A1:A1048576 E1:E1048576"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8581,580 +8593,580 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B2">
-        <v>14473.32</v>
+        <v>19955.5</v>
       </c>
       <c r="C2">
-        <v>7644.5827209599865</v>
+        <v>7346.8621975643446</v>
       </c>
       <c r="D2">
-        <v>1121.019</v>
+        <v>1755.374</v>
       </c>
       <c r="E2">
-        <v>12.91086056525358</v>
+        <v>11.36823263874251</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B3">
-        <v>20667.419999999998</v>
+        <v>20299.419999999998</v>
       </c>
       <c r="C3">
-        <v>12654.854900140101</v>
+        <v>7255.3049876349114</v>
       </c>
       <c r="D3">
-        <v>1215.865</v>
+        <v>1775.682</v>
       </c>
       <c r="E3">
-        <v>16.99812067951623</v>
+        <v>11.43190053173935</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>28596.720000000001</v>
+        <v>20327.7</v>
       </c>
       <c r="C4">
-        <v>24302.481610765601</v>
+        <v>7393.5936262415717</v>
       </c>
       <c r="D4">
-        <v>1622.317</v>
+        <v>1776.298</v>
       </c>
       <c r="E4">
-        <v>17.62708521207631</v>
+        <v>11.44385683032915</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>29123.1</v>
+        <v>20339.740000000002</v>
       </c>
       <c r="C5">
-        <v>25779.973630514061</v>
+        <v>7220.0543164438868</v>
       </c>
       <c r="D5">
-        <v>1635.7370000000001</v>
+        <v>1774.3389999999999</v>
       </c>
       <c r="E5">
-        <v>17.804268045535441</v>
+        <v>11.463277310592851</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>31061.4</v>
+        <v>20702.04</v>
       </c>
       <c r="C6">
-        <v>29054.91866861788</v>
+        <v>7715.2934252949844</v>
       </c>
       <c r="D6">
-        <v>1716.182</v>
+        <v>1805.5840000000001</v>
       </c>
       <c r="E6">
-        <v>18.0991293464213</v>
+        <v>11.465564604028391</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B7">
-        <v>31140.1</v>
+        <v>20276.3</v>
       </c>
       <c r="C7">
-        <v>30498.54823413731</v>
+        <v>7057.8014926746127</v>
       </c>
       <c r="D7">
-        <v>1709.133</v>
+        <v>1759.971</v>
       </c>
       <c r="E7">
-        <v>18.219822565008101</v>
+        <v>11.520814831608019</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>29422.86</v>
+        <v>20776.919999999998</v>
       </c>
       <c r="C8">
-        <v>28157.712638287929</v>
+        <v>9048.3905814017562</v>
       </c>
       <c r="D8">
-        <v>1717.7929999999999</v>
+        <v>1778.0119999999999</v>
       </c>
       <c r="E8">
-        <v>17.128291942044239</v>
+        <v>11.685477938281631</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B9">
-        <v>30366.84</v>
+        <v>20281.54</v>
       </c>
       <c r="C9">
-        <v>28150.259601190181</v>
+        <v>7302.8907446572139</v>
       </c>
       <c r="D9">
-        <v>1695</v>
+        <v>1734</v>
       </c>
       <c r="E9">
-        <v>17.915539823008849</v>
+        <v>11.69638985005767</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>24429.42</v>
+        <v>21003.22</v>
       </c>
       <c r="C10">
-        <v>22158.906716343201</v>
+        <v>8498.5632451373804</v>
       </c>
       <c r="D10">
-        <v>1787.309</v>
+        <v>1790.807</v>
       </c>
       <c r="E10">
-        <v>13.66826888915123</v>
+        <v>11.72835487017864</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B11">
-        <v>22456.720000000001</v>
+        <v>20647.84</v>
       </c>
       <c r="C11">
-        <v>19904.250933948759</v>
+        <v>7032.3312873043742</v>
       </c>
       <c r="D11">
-        <v>1700.8630000000001</v>
+        <v>1753.5</v>
       </c>
       <c r="E11">
-        <v>13.203132762603451</v>
+        <v>11.77521528371828</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>24647.279999999999</v>
+        <v>20901.080000000002</v>
       </c>
       <c r="C12">
-        <v>21865.818946511019</v>
+        <v>8406.8128344575398</v>
       </c>
       <c r="D12">
-        <v>1699.0909999999999</v>
+        <v>1772.047</v>
       </c>
       <c r="E12">
-        <v>14.506156527225439</v>
+        <v>11.794879029732281</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B13">
-        <v>22768.66</v>
+        <v>20543.62</v>
       </c>
       <c r="C13">
-        <v>20694.241803081361</v>
+        <v>7376.8128684141102</v>
       </c>
       <c r="D13">
-        <v>1692</v>
+        <v>1741.4169999999999</v>
       </c>
       <c r="E13">
-        <v>13.456654846335701</v>
+        <v>11.79707100596813</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B14">
-        <v>24153.279999999999</v>
+        <v>20656</v>
       </c>
       <c r="C14">
-        <v>21197.1112664344</v>
+        <v>8957.0640279055733</v>
       </c>
       <c r="D14">
-        <v>1683.0129999999999</v>
+        <v>1744.8520000000001</v>
       </c>
       <c r="E14">
-        <v>14.351214161744441</v>
+        <v>11.838253330368421</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>23663.8</v>
+        <v>20895.78</v>
       </c>
       <c r="C15">
-        <v>21362.262407338789</v>
+        <v>7917.3091509426358</v>
       </c>
       <c r="D15">
-        <v>1720.925</v>
+        <v>1758.4179999999999</v>
       </c>
       <c r="E15">
-        <v>13.75062829582928</v>
+        <v>11.883283724347679</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B16">
-        <v>24390.2</v>
+        <v>21047.759999999998</v>
       </c>
       <c r="C16">
-        <v>22769.468996004282</v>
+        <v>7758.6838434363344</v>
       </c>
       <c r="D16">
-        <v>1698.41</v>
+        <v>1770</v>
       </c>
       <c r="E16">
-        <v>14.36060786264801</v>
+        <v>11.891389830508469</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B17">
-        <v>23373.8</v>
+        <v>21029.52</v>
       </c>
       <c r="C17">
-        <v>20456.605797639058</v>
+        <v>9510.0881473096761</v>
       </c>
       <c r="D17">
-        <v>1732.5</v>
+        <v>1760.491</v>
       </c>
       <c r="E17">
-        <v>13.491370851370849</v>
+        <v>11.94525845346554</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B18">
-        <v>21418.720000000001</v>
+        <v>20986.22</v>
       </c>
       <c r="C18">
-        <v>16133.845368094981</v>
+        <v>8097.1935453958367</v>
       </c>
       <c r="D18">
-        <v>1731.201</v>
+        <v>1751.626</v>
       </c>
       <c r="E18">
-        <v>12.372173999437379</v>
+        <v>11.980993659605421</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B19">
-        <v>21686.76</v>
+        <v>20835.96</v>
       </c>
       <c r="C19">
-        <v>16960.63748514188</v>
+        <v>7680.6895835204796</v>
       </c>
       <c r="D19">
-        <v>1674.9169999999999</v>
+        <v>1734</v>
       </c>
       <c r="E19">
-        <v>12.947961003440771</v>
+        <v>12.01612456747405</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B20">
-        <v>21577.759999999998</v>
+        <v>20701.099999999999</v>
       </c>
       <c r="C20">
-        <v>16161.390923506549</v>
+        <v>7720.6658773709414</v>
       </c>
       <c r="D20">
-        <v>1673.932</v>
+        <v>1719.8040000000001</v>
       </c>
       <c r="E20">
-        <v>12.89046388981153</v>
+        <v>12.036894901977201</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>22539.14</v>
+        <v>19874.099999999999</v>
       </c>
       <c r="C21">
-        <v>16777.291594902908</v>
+        <v>7894.5618238126426</v>
       </c>
       <c r="D21">
-        <v>1699.5</v>
+        <v>1647.1179999999999</v>
       </c>
       <c r="E21">
-        <v>13.26221829949985</v>
+        <v>12.06598434356251</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B22">
-        <v>21996.48</v>
+        <v>21212.48</v>
       </c>
       <c r="C22">
-        <v>16194.781246117531</v>
+        <v>9084.2605560166539</v>
       </c>
       <c r="D22">
-        <v>1687.2829999999999</v>
+        <v>1749.5129999999999</v>
       </c>
       <c r="E22">
-        <v>13.036627524843199</v>
+        <v>12.12479129906437</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B23">
-        <v>21695.439999999999</v>
+        <v>21221.08</v>
       </c>
       <c r="C23">
-        <v>16436.746928951601</v>
+        <v>7762.2889171686984</v>
       </c>
       <c r="D23">
-        <v>1669.002</v>
+        <v>1746.809</v>
       </c>
       <c r="E23">
-        <v>12.9990497315162</v>
+        <v>12.148483320156931</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B24">
-        <v>21866.36</v>
+        <v>21334.9</v>
       </c>
       <c r="C24">
-        <v>16009.32204530848</v>
+        <v>7783.2075643657354</v>
       </c>
       <c r="D24">
-        <v>1671.365</v>
+        <v>1755.115</v>
       </c>
       <c r="E24">
-        <v>13.082935205655261</v>
+        <v>12.1558416400065</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>22478.74</v>
+        <v>20459.060000000001</v>
       </c>
       <c r="C25">
-        <v>16340.027087260291</v>
+        <v>15022.245594996781</v>
       </c>
       <c r="D25">
-        <v>1681.5</v>
+        <v>1674.2950000000001</v>
       </c>
       <c r="E25">
-        <v>13.368266428783819</v>
+        <v>12.219507315019159</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B26">
-        <v>21217.919999999998</v>
+        <v>21542.82</v>
       </c>
       <c r="C26">
-        <v>14888.646240461219</v>
+        <v>9090.3157067067805</v>
       </c>
       <c r="D26">
-        <v>1682.932</v>
+        <v>1759.5</v>
       </c>
       <c r="E26">
-        <v>12.60771082848267</v>
+        <v>12.24371696504689</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>20459.060000000001</v>
+        <v>20459</v>
       </c>
       <c r="C27">
-        <v>15022.245594996781</v>
+        <v>14643.621184666041</v>
       </c>
       <c r="D27">
-        <v>1674.2950000000001</v>
+        <v>1669.5</v>
       </c>
       <c r="E27">
-        <v>12.219507315019159</v>
+        <v>12.254567235699311</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B28">
-        <v>21156.7</v>
+        <v>21703.16</v>
       </c>
       <c r="C28">
-        <v>15488.71731002926</v>
+        <v>9559.8039945597211</v>
       </c>
       <c r="D28">
-        <v>1677.019</v>
+        <v>1770</v>
       </c>
       <c r="E28">
-        <v>12.615659095096721</v>
+        <v>12.26167231638418</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>20459</v>
+        <v>20808.48</v>
       </c>
       <c r="C29">
-        <v>14643.621184666041</v>
+        <v>15209.35551854844</v>
       </c>
       <c r="D29">
-        <v>1669.5</v>
+        <v>1693.9580000000001</v>
       </c>
       <c r="E29">
-        <v>12.254567235699311</v>
+        <v>12.283940924155139</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>20808.48</v>
+        <v>21418.720000000001</v>
       </c>
       <c r="C30">
-        <v>15209.35551854844</v>
+        <v>16133.845368094981</v>
       </c>
       <c r="D30">
-        <v>1693.9580000000001</v>
+        <v>1731.201</v>
       </c>
       <c r="E30">
-        <v>12.283940924155139</v>
+        <v>12.372173999437379</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>21371.46</v>
+        <v>21075.02</v>
       </c>
       <c r="C31">
-        <v>15355.300096982801</v>
+        <v>15078.200038452869</v>
       </c>
       <c r="D31">
-        <v>1681.9739999999999</v>
+        <v>1702.8910000000001</v>
       </c>
       <c r="E31">
-        <v>12.70617738443044</v>
+        <v>12.376024067306719</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>21075.02</v>
+        <v>20862.419999999998</v>
       </c>
       <c r="C32">
-        <v>15078.200038452869</v>
+        <v>15160.526248900471</v>
       </c>
       <c r="D32">
-        <v>1702.8910000000001</v>
+        <v>1684.5</v>
       </c>
       <c r="E32">
-        <v>12.376024067306719</v>
+        <v>12.384933214603739</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>20862.419999999998</v>
+        <v>21217.919999999998</v>
       </c>
       <c r="C33">
-        <v>15160.526248900471</v>
+        <v>14888.646240461219</v>
       </c>
       <c r="D33">
-        <v>1684.5</v>
+        <v>1682.932</v>
       </c>
       <c r="E33">
-        <v>12.384933214603739</v>
+        <v>12.60771082848267</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>19874.099999999999</v>
+        <v>21156.7</v>
       </c>
       <c r="C34">
-        <v>7894.5618238126426</v>
+        <v>15488.71731002926</v>
       </c>
       <c r="D34">
-        <v>1647.1179999999999</v>
+        <v>1677.019</v>
       </c>
       <c r="E34">
-        <v>12.06598434356251</v>
+        <v>12.615659095096721</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>22362.06</v>
+        <v>21371.46</v>
       </c>
       <c r="C35">
-        <v>10633.865043172211</v>
+        <v>15355.300096982801</v>
       </c>
       <c r="D35">
-        <v>1725.4159999999999</v>
+        <v>1681.9739999999999</v>
       </c>
       <c r="E35">
-        <v>12.96038752393626</v>
+        <v>12.70617738443044</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -9176,498 +9188,501 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>23798.92</v>
+        <v>21577.759999999998</v>
       </c>
       <c r="C37">
-        <v>12950.109112806729</v>
+        <v>16161.390923506549</v>
       </c>
       <c r="D37">
-        <v>1768.5</v>
+        <v>1673.932</v>
       </c>
       <c r="E37">
-        <v>13.45712185467911</v>
+        <v>12.89046388981153</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B38">
-        <v>23221.94</v>
+        <v>14473.32</v>
       </c>
       <c r="C38">
-        <v>12029.2858905423</v>
+        <v>7644.5827209599865</v>
       </c>
       <c r="D38">
-        <v>1757.479</v>
+        <v>1121.019</v>
       </c>
       <c r="E38">
-        <v>13.213210513468439</v>
+        <v>12.91086056525358</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>23187.48</v>
+        <v>21686.76</v>
       </c>
       <c r="C39">
-        <v>12694.429741016331</v>
+        <v>16960.63748514188</v>
       </c>
       <c r="D39">
-        <v>1783.492</v>
+        <v>1674.9169999999999</v>
       </c>
       <c r="E39">
-        <v>13.00116849416762</v>
+        <v>12.947961003440771</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B40">
-        <v>24048.38</v>
+        <v>22362.06</v>
       </c>
       <c r="C40">
-        <v>12874.19551566621</v>
+        <v>10633.865043172211</v>
       </c>
       <c r="D40">
-        <v>1755.345</v>
+        <v>1725.4159999999999</v>
       </c>
       <c r="E40">
-        <v>13.70008744719699</v>
+        <v>12.96038752393626</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B41">
-        <v>23992.880000000001</v>
+        <v>21695.439999999999</v>
       </c>
       <c r="C41">
-        <v>12309.105398265139</v>
+        <v>16436.746928951601</v>
       </c>
       <c r="D41">
-        <v>1752</v>
+        <v>1669.002</v>
       </c>
       <c r="E41">
-        <v>13.694566210045661</v>
+        <v>12.9990497315162</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42">
-        <v>20776.919999999998</v>
+        <v>23187.48</v>
       </c>
       <c r="C42">
-        <v>9048.3905814017562</v>
+        <v>12694.429741016331</v>
       </c>
       <c r="D42">
-        <v>1778.0119999999999</v>
+        <v>1783.492</v>
       </c>
       <c r="E42">
-        <v>11.685477938281631</v>
+        <v>13.00116849416762</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B43">
-        <v>21029.52</v>
+        <v>21996.48</v>
       </c>
       <c r="C43">
-        <v>9510.0881473096761</v>
+        <v>16194.781246117531</v>
       </c>
       <c r="D43">
-        <v>1760.491</v>
+        <v>1687.2829999999999</v>
       </c>
       <c r="E43">
-        <v>11.94525845346554</v>
+        <v>13.036627524843199</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>20901.080000000002</v>
+        <v>21866.36</v>
       </c>
       <c r="C44">
-        <v>8406.8128344575398</v>
+        <v>16009.32204530848</v>
       </c>
       <c r="D44">
-        <v>1772.047</v>
+        <v>1671.365</v>
       </c>
       <c r="E44">
-        <v>11.794879029732281</v>
+        <v>13.082935205655261</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>21542.82</v>
+        <v>22456.720000000001</v>
       </c>
       <c r="C45">
-        <v>9090.3157067067805</v>
+        <v>19904.250933948759</v>
       </c>
       <c r="D45">
-        <v>1759.5</v>
+        <v>1700.8630000000001</v>
       </c>
       <c r="E45">
-        <v>12.24371696504689</v>
+        <v>13.203132762603451</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B46">
-        <v>21003.22</v>
+        <v>23221.94</v>
       </c>
       <c r="C46">
-        <v>8498.5632451373804</v>
+        <v>12029.2858905423</v>
       </c>
       <c r="D46">
-        <v>1790.807</v>
+        <v>1757.479</v>
       </c>
       <c r="E46">
-        <v>11.72835487017864</v>
+        <v>13.213210513468439</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B47">
-        <v>21212.48</v>
+        <v>22539.14</v>
       </c>
       <c r="C47">
-        <v>9084.2605560166539</v>
+        <v>16777.291594902908</v>
       </c>
       <c r="D47">
-        <v>1749.5129999999999</v>
+        <v>1699.5</v>
       </c>
       <c r="E47">
-        <v>12.12479129906437</v>
+        <v>13.26221829949985</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B48">
-        <v>20656</v>
+        <v>22478.74</v>
       </c>
       <c r="C48">
-        <v>8957.0640279055733</v>
+        <v>16340.027087260291</v>
       </c>
       <c r="D48">
-        <v>1744.8520000000001</v>
+        <v>1681.5</v>
       </c>
       <c r="E48">
-        <v>11.838253330368421</v>
+        <v>13.368266428783819</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>21703.16</v>
+        <v>22768.66</v>
       </c>
       <c r="C49">
-        <v>9559.8039945597211</v>
+        <v>20694.241803081361</v>
       </c>
       <c r="D49">
-        <v>1770</v>
+        <v>1692</v>
       </c>
       <c r="E49">
-        <v>12.26167231638418</v>
+        <v>13.456654846335701</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B50">
-        <v>20702.04</v>
+        <v>23798.92</v>
       </c>
       <c r="C50">
-        <v>7715.2934252949844</v>
+        <v>12950.109112806729</v>
       </c>
       <c r="D50">
-        <v>1805.5840000000001</v>
+        <v>1768.5</v>
       </c>
       <c r="E50">
-        <v>11.465564604028391</v>
+        <v>13.45712185467911</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>21221.08</v>
+        <v>23373.8</v>
       </c>
       <c r="C51">
-        <v>7762.2889171686984</v>
+        <v>20456.605797639058</v>
       </c>
       <c r="D51">
-        <v>1746.809</v>
+        <v>1732.5</v>
       </c>
       <c r="E51">
-        <v>12.148483320156931</v>
+        <v>13.491370851370849</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B52">
-        <v>20986.22</v>
+        <v>24429.42</v>
       </c>
       <c r="C52">
-        <v>8097.1935453958367</v>
+        <v>22158.906716343201</v>
       </c>
       <c r="D52">
-        <v>1751.626</v>
+        <v>1787.309</v>
       </c>
       <c r="E52">
-        <v>11.980993659605421</v>
+        <v>13.66826888915123</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B53">
-        <v>21047.759999999998</v>
+        <v>23992.880000000001</v>
       </c>
       <c r="C53">
-        <v>7758.6838434363344</v>
+        <v>12309.105398265139</v>
       </c>
       <c r="D53">
-        <v>1770</v>
+        <v>1752</v>
       </c>
       <c r="E53">
-        <v>11.891389830508469</v>
+        <v>13.694566210045661</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B54">
-        <v>21334.9</v>
+        <v>24048.38</v>
       </c>
       <c r="C54">
-        <v>7783.2075643657354</v>
+        <v>12874.19551566621</v>
       </c>
       <c r="D54">
-        <v>1755.115</v>
+        <v>1755.345</v>
       </c>
       <c r="E54">
-        <v>12.1558416400065</v>
+        <v>13.70008744719699</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>20701.099999999999</v>
+        <v>23663.8</v>
       </c>
       <c r="C55">
-        <v>7720.6658773709414</v>
+        <v>21362.262407338789</v>
       </c>
       <c r="D55">
-        <v>1719.8040000000001</v>
+        <v>1720.925</v>
       </c>
       <c r="E55">
-        <v>12.036894901977201</v>
+        <v>13.75062829582928</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>20895.78</v>
+        <v>24153.279999999999</v>
       </c>
       <c r="C56">
-        <v>7917.3091509426358</v>
+        <v>21197.1112664344</v>
       </c>
       <c r="D56">
-        <v>1758.4179999999999</v>
+        <v>1683.0129999999999</v>
       </c>
       <c r="E56">
-        <v>11.883283724347679</v>
+        <v>14.351214161744441</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>20835.96</v>
+        <v>24390.2</v>
       </c>
       <c r="C57">
-        <v>7680.6895835204796</v>
+        <v>22769.468996004282</v>
       </c>
       <c r="D57">
-        <v>1734</v>
+        <v>1698.41</v>
       </c>
       <c r="E57">
-        <v>12.01612456747405</v>
+        <v>14.36060786264801</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B58">
-        <v>20299.419999999998</v>
+        <v>24647.279999999999</v>
       </c>
       <c r="C58">
-        <v>7255.3049876349114</v>
+        <v>21865.818946511019</v>
       </c>
       <c r="D58">
-        <v>1775.682</v>
+        <v>1699.0909999999999</v>
       </c>
       <c r="E58">
-        <v>11.43190053173935</v>
+        <v>14.506156527225439</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>20327.7</v>
+        <v>20667.419999999998</v>
       </c>
       <c r="C59">
-        <v>7393.5936262415717</v>
+        <v>12654.854900140101</v>
       </c>
       <c r="D59">
-        <v>1776.298</v>
+        <v>1215.865</v>
       </c>
       <c r="E59">
-        <v>11.44385683032915</v>
+        <v>16.99812067951623</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>20339.740000000002</v>
+        <v>29422.86</v>
       </c>
       <c r="C60">
-        <v>7220.0543164438868</v>
+        <v>28157.712638287929</v>
       </c>
       <c r="D60">
-        <v>1774.3389999999999</v>
+        <v>1717.7929999999999</v>
       </c>
       <c r="E60">
-        <v>11.463277310592851</v>
+        <v>17.128291942044239</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B61">
-        <v>20281.54</v>
+        <v>28596.720000000001</v>
       </c>
       <c r="C61">
-        <v>7302.8907446572139</v>
+        <v>24302.481610765601</v>
       </c>
       <c r="D61">
-        <v>1734</v>
+        <v>1622.317</v>
       </c>
       <c r="E61">
-        <v>11.69638985005767</v>
+        <v>17.62708521207631</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>20543.62</v>
+        <v>29123.1</v>
       </c>
       <c r="C62">
-        <v>7376.8128684141102</v>
+        <v>25779.973630514061</v>
       </c>
       <c r="D62">
-        <v>1741.4169999999999</v>
+        <v>1635.7370000000001</v>
       </c>
       <c r="E62">
-        <v>11.79707100596813</v>
+        <v>17.804268045535441</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B63">
-        <v>20276.3</v>
+        <v>30366.84</v>
       </c>
       <c r="C63">
-        <v>7057.8014926746127</v>
+        <v>28150.259601190181</v>
       </c>
       <c r="D63">
-        <v>1759.971</v>
+        <v>1695</v>
       </c>
       <c r="E63">
-        <v>11.520814831608019</v>
+        <v>17.915539823008849</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B64">
-        <v>19955.5</v>
+        <v>31061.4</v>
       </c>
       <c r="C64">
-        <v>7346.8621975643446</v>
+        <v>29054.91866861788</v>
       </c>
       <c r="D64">
-        <v>1755.374</v>
+        <v>1716.182</v>
       </c>
       <c r="E64">
-        <v>11.36823263874251</v>
+        <v>18.0991293464213</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B65">
-        <v>20647.84</v>
+        <v>31140.1</v>
       </c>
       <c r="C65">
-        <v>7032.3312873043742</v>
+        <v>30498.54823413731</v>
       </c>
       <c r="D65">
-        <v>1753.5</v>
+        <v>1709.133</v>
       </c>
       <c r="E65">
-        <v>11.77521528371828</v>
+        <v>18.219822565008101</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E65">
+    <sortCondition ref="E1:E65"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9678,8 +9693,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9703,2181 +9718,2184 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B2">
-        <v>18016.02</v>
+        <v>34502.199999999997</v>
       </c>
       <c r="C2">
-        <v>5934.8461614097459</v>
+        <v>10765.96224960872</v>
       </c>
       <c r="D2">
-        <v>1061.9570000000001</v>
+        <v>3000.5149999999999</v>
       </c>
       <c r="E2">
-        <v>16.96492419184581</v>
+        <v>11.49875937963983</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B3">
-        <v>27668.34</v>
+        <v>34549.94</v>
       </c>
       <c r="C3">
-        <v>11133.78561156986</v>
+        <v>11956.176646252759</v>
       </c>
       <c r="D3">
-        <v>1202.9929999999999</v>
+        <v>3002.3380000000002</v>
       </c>
       <c r="E3">
-        <v>22.999585201243899</v>
+        <v>11.50767834933975</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="B4">
-        <v>55156.32</v>
+        <v>34625.300000000003</v>
       </c>
       <c r="C4">
-        <v>30340.317889857379</v>
+        <v>10907.80067245455</v>
       </c>
       <c r="D4">
-        <v>1965.9259999999999</v>
+        <v>3001.683</v>
       </c>
       <c r="E4">
-        <v>28.056152673091461</v>
+        <v>11.535295365966361</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="B5">
-        <v>55516.32</v>
+        <v>35423.599999999999</v>
       </c>
       <c r="C5">
-        <v>34940.669450621579</v>
+        <v>11047.551757742531</v>
       </c>
       <c r="D5">
-        <v>2093.5450000000001</v>
+        <v>3057.4969999999998</v>
       </c>
       <c r="E5">
-        <v>26.517853688361129</v>
+        <v>11.585816764497229</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B6">
-        <v>71532.42</v>
+        <v>35068.379999999997</v>
       </c>
       <c r="C6">
-        <v>52542.960165407509</v>
+        <v>10718.810856415001</v>
       </c>
       <c r="D6">
-        <v>2641.9949999999999</v>
+        <v>3022.9479999999999</v>
       </c>
       <c r="E6">
-        <v>27.075153435188181</v>
+        <v>11.60072220891659</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="B7">
-        <v>77903.679999999993</v>
+        <v>34833.26</v>
       </c>
       <c r="C7">
-        <v>63837.059556793487</v>
+        <v>10669.013027098619</v>
       </c>
       <c r="D7">
-        <v>2723.7240000000002</v>
+        <v>3000</v>
       </c>
       <c r="E7">
-        <v>28.601899458241721</v>
+        <v>11.611086666666671</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="B8">
-        <v>79442.34</v>
+        <v>34919.120000000003</v>
       </c>
       <c r="C8">
-        <v>71678.037616304762</v>
+        <v>10596.68287841058</v>
       </c>
       <c r="D8">
-        <v>2896.1109999999999</v>
+        <v>3002.9180000000001</v>
       </c>
       <c r="E8">
-        <v>27.43069585385367</v>
+        <v>11.62839611338039</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B9">
-        <v>81340.240000000005</v>
+        <v>35122.26</v>
       </c>
       <c r="C9">
-        <v>74042.384520910724</v>
+        <v>10851.66280771753</v>
       </c>
       <c r="D9">
-        <v>2858.4760000000001</v>
+        <v>3007.2959999999998</v>
       </c>
       <c r="E9">
-        <v>28.455806520677449</v>
+        <v>11.67901663155207</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="B10">
-        <v>58934.54</v>
+        <v>35085.26</v>
       </c>
       <c r="C10">
-        <v>47174.244737869412</v>
+        <v>11691.137221519561</v>
       </c>
       <c r="D10">
-        <v>2869.97</v>
+        <v>3000</v>
       </c>
       <c r="E10">
-        <v>20.534897577326589</v>
+        <v>11.69508666666667</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="B11">
-        <v>62354.400000000001</v>
+        <v>35307.54</v>
       </c>
       <c r="C11">
-        <v>56911.986068314312</v>
+        <v>11945.22054833648</v>
       </c>
       <c r="D11">
-        <v>2956.9630000000002</v>
+        <v>3001.8209999999999</v>
       </c>
       <c r="E11">
-        <v>21.087311542281721</v>
+        <v>11.76204044145204</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B12">
-        <v>61137.24</v>
+        <v>35671.440000000002</v>
       </c>
       <c r="C12">
-        <v>59880.413769298561</v>
+        <v>11788.632809889359</v>
       </c>
       <c r="D12">
-        <v>2997.52</v>
+        <v>3030.9540000000002</v>
       </c>
       <c r="E12">
-        <v>20.395940644265931</v>
+        <v>11.769046973329189</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B13">
-        <v>63579.26</v>
+        <v>35388.94</v>
       </c>
       <c r="C13">
-        <v>61480.022991638507</v>
+        <v>11331.55317140594</v>
       </c>
       <c r="D13">
-        <v>2997.1</v>
+        <v>3000</v>
       </c>
       <c r="E13">
-        <v>21.213593140035371</v>
+        <v>11.79631333333333</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B14">
-        <v>64580.46</v>
+        <v>35486.92</v>
       </c>
       <c r="C14">
-        <v>59039.913233239087</v>
+        <v>11791.46861563902</v>
       </c>
       <c r="D14">
-        <v>3007.0410000000002</v>
+        <v>3007.4670000000001</v>
       </c>
       <c r="E14">
-        <v>21.47641485433687</v>
+        <v>11.79960411868193</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B15">
-        <v>63331.3</v>
+        <v>35536.06</v>
       </c>
       <c r="C15">
-        <v>62671.799488366378</v>
+        <v>10991.869835310101</v>
       </c>
       <c r="D15">
-        <v>3000.4349999999999</v>
+        <v>3005.3049999999998</v>
       </c>
       <c r="E15">
-        <v>21.107372764282509</v>
+        <v>11.82444377525742</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B16">
-        <v>62837.48</v>
+        <v>35503.1</v>
       </c>
       <c r="C16">
-        <v>58686.431774726261</v>
+        <v>11334.09879919881</v>
       </c>
       <c r="D16">
-        <v>3001.9259999999999</v>
+        <v>3000</v>
       </c>
       <c r="E16">
-        <v>20.93238807352347</v>
+        <v>11.83436666666667</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B17">
-        <v>62759.12</v>
+        <v>35614.28</v>
       </c>
       <c r="C17">
-        <v>59640.92480189757</v>
+        <v>10704.18774506501</v>
       </c>
       <c r="D17">
         <v>3000</v>
       </c>
       <c r="E17">
-        <v>20.91970666666667</v>
+        <v>11.87142666666667</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B18">
-        <v>55247.14</v>
+        <v>35789.599999999999</v>
       </c>
       <c r="C18">
-        <v>46243.052120512111</v>
+        <v>11207.1945035321</v>
       </c>
       <c r="D18">
-        <v>2861.6689999999999</v>
+        <v>3010.31</v>
       </c>
       <c r="E18">
-        <v>19.305915533906958</v>
+        <v>11.88900810879943</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="B19">
-        <v>58453.38</v>
+        <v>35750.839999999997</v>
       </c>
       <c r="C19">
-        <v>51767.543783490437</v>
+        <v>12691.86694282602</v>
       </c>
       <c r="D19">
-        <v>2956.1590000000001</v>
+        <v>3003.5940000000001</v>
       </c>
       <c r="E19">
-        <v>19.773422200903269</v>
+        <v>11.90268724734435</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="B20">
-        <v>60794.9</v>
+        <v>35716.5</v>
       </c>
       <c r="C20">
-        <v>54731.029378132473</v>
+        <v>12199.796627403261</v>
       </c>
       <c r="D20">
-        <v>3011.8530000000001</v>
+        <v>3000.4789999999998</v>
       </c>
       <c r="E20">
-        <v>20.18521488266526</v>
+        <v>11.90359939196375</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="B21">
-        <v>62649.52</v>
+        <v>32903.919999999998</v>
       </c>
       <c r="C21">
-        <v>60469.054331695967</v>
+        <v>11771.22888374871</v>
       </c>
       <c r="D21">
-        <v>3000</v>
+        <v>2764.056</v>
       </c>
       <c r="E21">
-        <v>20.883173333333328</v>
+        <v>11.90421612297291</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="B22">
-        <v>59586.62</v>
+        <v>35771.56</v>
       </c>
       <c r="C22">
-        <v>53763.929311161774</v>
+        <v>10902.756604015331</v>
       </c>
       <c r="D22">
-        <v>3016.3020000000001</v>
+        <v>3001.835</v>
       </c>
       <c r="E22">
-        <v>19.75485876414232</v>
+        <v>11.91656436812816</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="B23">
-        <v>59780.959999999999</v>
+        <v>35749.919999999998</v>
       </c>
       <c r="C23">
-        <v>55904.937212006596</v>
+        <v>10995.86900584033</v>
       </c>
       <c r="D23">
-        <v>3001.3150000000001</v>
+        <v>3000</v>
       </c>
       <c r="E23">
-        <v>19.918255831193989</v>
+        <v>11.916639999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="B24">
-        <v>58909.8</v>
+        <v>35801.42</v>
       </c>
       <c r="C24">
-        <v>49524.512596894892</v>
+        <v>10329.92390986497</v>
       </c>
       <c r="D24">
-        <v>3001.8870000000002</v>
+        <v>3001.8220000000001</v>
       </c>
       <c r="E24">
-        <v>19.6242563427604</v>
+        <v>11.92656326724236</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B25">
-        <v>56571.08</v>
+        <v>35991.980000000003</v>
       </c>
       <c r="C25">
-        <v>51979.224607852702</v>
+        <v>11084.849159081959</v>
       </c>
       <c r="D25">
-        <v>3000</v>
+        <v>3000.7739999999999</v>
       </c>
       <c r="E25">
-        <v>18.85702666666667</v>
+        <v>11.99423215477074</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B26">
-        <v>58544.9</v>
+        <v>36215.68</v>
       </c>
       <c r="C26">
-        <v>54868.388286790418</v>
+        <v>11102.65235597332</v>
       </c>
       <c r="D26">
-        <v>3022.34</v>
+        <v>3005.6410000000001</v>
       </c>
       <c r="E26">
-        <v>19.370719376377249</v>
+        <v>12.04923675182765</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B27">
-        <v>56795.1</v>
+        <v>36192.879999999997</v>
       </c>
       <c r="C27">
-        <v>47553.347646511698</v>
+        <v>17618.309081906809</v>
       </c>
       <c r="D27">
-        <v>3001.8090000000002</v>
+        <v>3001.79</v>
       </c>
       <c r="E27">
-        <v>18.920291064488111</v>
+        <v>12.05709926410575</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B28">
-        <v>56906.52</v>
+        <v>36959.4</v>
       </c>
       <c r="C28">
-        <v>48666.359016158167</v>
+        <v>17119.102068741809</v>
       </c>
       <c r="D28">
-        <v>3002.9740000000002</v>
+        <v>3053.35</v>
       </c>
       <c r="E28">
-        <v>18.950054179623269</v>
+        <v>12.10454091407798</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B29">
-        <v>56646.02</v>
+        <v>36411.919999999998</v>
       </c>
       <c r="C29">
-        <v>50829.893631204854</v>
+        <v>16904.596591270671</v>
       </c>
       <c r="D29">
-        <v>3000</v>
+        <v>3007.9670000000001</v>
       </c>
       <c r="E29">
-        <v>18.882006666666669</v>
+        <v>12.10515939835776</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="B30">
-        <v>56051.94</v>
+        <v>36759.519999999997</v>
       </c>
       <c r="C30">
-        <v>51215.956000414561</v>
+        <v>17940.115467008571</v>
       </c>
       <c r="D30">
-        <v>3007.2489999999998</v>
+        <v>3023.2269999999999</v>
       </c>
       <c r="E30">
-        <v>18.638942102898699</v>
+        <v>12.159034038793649</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B31">
-        <v>56017.84</v>
+        <v>36536.9</v>
       </c>
       <c r="C31">
-        <v>49653.720031175922</v>
+        <v>16911.410218843372</v>
       </c>
       <c r="D31">
-        <v>3000.5010000000002</v>
+        <v>3002.83</v>
       </c>
       <c r="E31">
-        <v>18.669495527580221</v>
+        <v>12.167488669022219</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="B32">
-        <v>60138.8</v>
+        <v>36557.9</v>
       </c>
       <c r="C32">
-        <v>53101.057731084788</v>
+        <v>17532.05596585865</v>
       </c>
       <c r="D32">
-        <v>3001.8809999999999</v>
+        <v>3001.902</v>
       </c>
       <c r="E32">
-        <v>20.03370553329729</v>
+        <v>12.178245658918909</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B33">
-        <v>60213.72</v>
+        <v>36650.78</v>
       </c>
       <c r="C33">
-        <v>54127.117682004828</v>
+        <v>18136.474061724341</v>
       </c>
       <c r="D33">
-        <v>3000</v>
+        <v>3000.49</v>
       </c>
       <c r="E33">
-        <v>20.07124</v>
+        <v>12.214931561178339</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B34">
-        <v>39402.339999999997</v>
+        <v>36911.760000000002</v>
       </c>
       <c r="C34">
-        <v>27509.976876115328</v>
+        <v>18440.89412426632</v>
       </c>
       <c r="D34">
-        <v>2447.4540000000002</v>
+        <v>3000</v>
       </c>
       <c r="E34">
-        <v>16.099317903421269</v>
+        <v>12.30392</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B35">
-        <v>46889.440000000002</v>
+        <v>37072.68</v>
       </c>
       <c r="C35">
-        <v>33213.28738451525</v>
+        <v>17280.195948472341</v>
       </c>
       <c r="D35">
-        <v>2784.4270000000001</v>
+        <v>3007.3919999999998</v>
       </c>
       <c r="E35">
-        <v>16.83988842228581</v>
+        <v>12.327185814153919</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="B36">
-        <v>53960.959999999999</v>
+        <v>36065.599999999999</v>
       </c>
       <c r="C36">
-        <v>39799.105294948531</v>
+        <v>12984.21631982462</v>
       </c>
       <c r="D36">
-        <v>3012.7060000000001</v>
+        <v>2912.5439999999999</v>
       </c>
       <c r="E36">
-        <v>17.911127073136239</v>
+        <v>12.38285155520397</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B37">
-        <v>54216.62</v>
+        <v>37178.519999999997</v>
       </c>
       <c r="C37">
-        <v>39573.552251163906</v>
+        <v>18042.292853448529</v>
       </c>
       <c r="D37">
-        <v>2994.1089999999999</v>
+        <v>3000.88</v>
       </c>
       <c r="E37">
-        <v>18.10776427979075</v>
+        <v>12.38920583295566</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="B38">
-        <v>54585.120000000003</v>
+        <v>37318.28</v>
       </c>
       <c r="C38">
-        <v>43509.996481103051</v>
+        <v>19084.806989896439</v>
       </c>
       <c r="D38">
-        <v>3023.152</v>
+        <v>3000</v>
       </c>
       <c r="E38">
-        <v>18.055698158742931</v>
+        <v>12.43942666666667</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B39">
-        <v>54401.24</v>
+        <v>37434.74</v>
       </c>
       <c r="C39">
-        <v>40947.128329864601</v>
+        <v>17164.65158202752</v>
       </c>
       <c r="D39">
-        <v>3002.0329999999999</v>
+        <v>3000</v>
       </c>
       <c r="E39">
-        <v>18.121466352968142</v>
+        <v>12.478246666666671</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B40">
-        <v>53986.6</v>
+        <v>37541.26</v>
       </c>
       <c r="C40">
-        <v>38416.633549024053</v>
+        <v>18260.538426136289</v>
       </c>
       <c r="D40">
-        <v>3001.7959999999998</v>
+        <v>2995.5639999999999</v>
       </c>
       <c r="E40">
-        <v>17.984766453150051</v>
+        <v>12.53228440453951</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B41">
-        <v>52765.56</v>
+        <v>38155.06</v>
       </c>
       <c r="C41">
-        <v>39295.403704331628</v>
+        <v>22139.154093966641</v>
       </c>
       <c r="D41">
-        <v>3000</v>
+        <v>3044.3490000000002</v>
       </c>
       <c r="E41">
-        <v>17.588519999999999</v>
+        <v>12.533076858139459</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B42">
-        <v>49678.1</v>
+        <v>37814.92</v>
       </c>
       <c r="C42">
-        <v>37155.906878853057</v>
+        <v>21712.040617906001</v>
       </c>
       <c r="D42">
-        <v>3035.8150000000001</v>
+        <v>3007.752</v>
       </c>
       <c r="E42">
-        <v>16.364007688215519</v>
+        <v>12.57248602943328</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B43">
-        <v>51387.86</v>
+        <v>37833.980000000003</v>
       </c>
       <c r="C43">
-        <v>39144.108841821908</v>
+        <v>18112.864316821899</v>
       </c>
       <c r="D43">
-        <v>3002.7280000000001</v>
+        <v>3000</v>
       </c>
       <c r="E43">
-        <v>17.113724586442729</v>
+        <v>12.61132666666667</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B44">
-        <v>50923.32</v>
+        <v>38126.160000000003</v>
       </c>
       <c r="C44">
-        <v>37245.222300015877</v>
+        <v>18145.87057306428</v>
       </c>
       <c r="D44">
-        <v>3004.0839999999998</v>
+        <v>3011.8159999999998</v>
       </c>
       <c r="E44">
-        <v>16.951363543762429</v>
+        <v>12.658860966274171</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B45">
-        <v>51303.58</v>
+        <v>38063.440000000002</v>
       </c>
       <c r="C45">
-        <v>37611.904205764433</v>
+        <v>14270.52355614187</v>
       </c>
       <c r="D45">
-        <v>3000</v>
+        <v>3001.8609999999999</v>
       </c>
       <c r="E45">
-        <v>17.101193333333331</v>
+        <v>12.67994753920985</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="B46">
-        <v>50336.68</v>
+        <v>38054.620000000003</v>
       </c>
       <c r="C46">
-        <v>37690.563160791316</v>
+        <v>14755.71242114728</v>
       </c>
       <c r="D46">
-        <v>3007.7080000000001</v>
+        <v>3000</v>
       </c>
       <c r="E46">
-        <v>16.73589324495596</v>
+        <v>12.68487333333333</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B47">
-        <v>51601.06</v>
+        <v>38193.5</v>
       </c>
       <c r="C47">
-        <v>38158.170386909267</v>
+        <v>15138.10211849557</v>
       </c>
       <c r="D47">
-        <v>3000.48</v>
+        <v>3010.8620000000001</v>
       </c>
       <c r="E47">
-        <v>17.1976017170586</v>
+        <v>12.685237649550199</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B48">
-        <v>51241.56</v>
+        <v>38137.440000000002</v>
       </c>
       <c r="C48">
-        <v>37766.271629145493</v>
+        <v>21638.865863219351</v>
       </c>
       <c r="D48">
-        <v>3001.9209999999998</v>
+        <v>3001.7829999999999</v>
       </c>
       <c r="E48">
-        <v>17.069589772682221</v>
+        <v>12.704929037175569</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B49">
-        <v>49837.279999999999</v>
+        <v>38181.480000000003</v>
       </c>
       <c r="C49">
-        <v>38108.416737009677</v>
+        <v>17509.646604360689</v>
       </c>
       <c r="D49">
-        <v>3000</v>
+        <v>3001.8980000000001</v>
       </c>
       <c r="E49">
-        <v>16.612426666666671</v>
+        <v>12.719113041149299</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B50">
-        <v>47617.14</v>
+        <v>23401.38</v>
       </c>
       <c r="C50">
-        <v>33026.790001760703</v>
+        <v>7626.6118883551426</v>
       </c>
       <c r="D50">
-        <v>3052.9560000000001</v>
+        <v>1820.8420000000001</v>
       </c>
       <c r="E50">
-        <v>15.59706068479205</v>
+        <v>12.85195530419443</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B51">
-        <v>48789.68</v>
+        <v>38838.800000000003</v>
       </c>
       <c r="C51">
-        <v>35555.10078592944</v>
+        <v>14681.82634960651</v>
       </c>
       <c r="D51">
-        <v>3005.43</v>
+        <v>3019.7849999999999</v>
       </c>
       <c r="E51">
-        <v>16.233843410094401</v>
+        <v>12.86144543402925</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B52">
-        <v>49242.7</v>
+        <v>38720.699999999997</v>
       </c>
       <c r="C52">
-        <v>36479.613434218292</v>
+        <v>14469.51628458947</v>
       </c>
       <c r="D52">
-        <v>3005.57</v>
+        <v>3000</v>
       </c>
       <c r="E52">
-        <v>16.383814051910289</v>
+        <v>12.9069</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B53">
-        <v>48412.84</v>
+        <v>38776.639999999999</v>
       </c>
       <c r="C53">
-        <v>33676.08041228076</v>
+        <v>14938.185643189739</v>
       </c>
       <c r="D53">
-        <v>3000</v>
+        <v>3001.5819999999999</v>
       </c>
       <c r="E53">
-        <v>16.137613333333331</v>
+        <v>12.91873418750512</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B54">
-        <v>50720.56</v>
+        <v>38943.360000000001</v>
       </c>
       <c r="C54">
-        <v>36674.316916425312</v>
+        <v>22314.27304463222</v>
       </c>
       <c r="D54">
-        <v>3010.556</v>
+        <v>3000</v>
       </c>
       <c r="E54">
-        <v>16.847572342118859</v>
+        <v>12.981120000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B55">
-        <v>49257.64</v>
+        <v>39356</v>
       </c>
       <c r="C55">
-        <v>36352.320388530898</v>
+        <v>23570.099753713392</v>
       </c>
       <c r="D55">
-        <v>3000.8159999999998</v>
+        <v>3005.2510000000002</v>
       </c>
       <c r="E55">
-        <v>16.414748521735419</v>
+        <v>13.09574474810923</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B56">
-        <v>50401.88</v>
+        <v>39316.46</v>
       </c>
       <c r="C56">
-        <v>35580.385018512658</v>
+        <v>23736.749227061398</v>
       </c>
       <c r="D56">
-        <v>3001.76</v>
+        <v>3000</v>
       </c>
       <c r="E56">
-        <v>16.79077607803422</v>
+        <v>13.105486666666669</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B57">
-        <v>48512.959999999999</v>
+        <v>39398.480000000003</v>
       </c>
       <c r="C57">
-        <v>35953.313939585598</v>
+        <v>23086.08796850605</v>
       </c>
       <c r="D57">
-        <v>3000</v>
+        <v>3000.4630000000002</v>
       </c>
       <c r="E57">
-        <v>16.170986666666671</v>
+        <v>13.130800146510721</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B58">
-        <v>47835.44</v>
+        <v>40428.5</v>
       </c>
       <c r="C58">
-        <v>35664.670978524387</v>
+        <v>24943.96326468591</v>
       </c>
       <c r="D58">
-        <v>3022.989</v>
+        <v>3004.6779999999999</v>
       </c>
       <c r="E58">
-        <v>15.82388821130345</v>
+        <v>13.455185547336519</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>49489.14</v>
+        <v>30994.14</v>
       </c>
       <c r="C59">
-        <v>37852.184497864837</v>
+        <v>10875.118963045879</v>
       </c>
       <c r="D59">
-        <v>3001.6779999999999</v>
+        <v>2240.2959999999998</v>
       </c>
       <c r="E59">
-        <v>16.48715818285639</v>
+        <v>13.83484146737753</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>50309.04</v>
+        <v>42954.3</v>
       </c>
       <c r="C60">
-        <v>37711.550398762447</v>
+        <v>23642.858810008569</v>
       </c>
       <c r="D60">
-        <v>3002.88</v>
+        <v>2863.556</v>
       </c>
       <c r="E60">
-        <v>16.753596547314579</v>
+        <v>15.00033524750345</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>50157.22</v>
+        <v>45627.22</v>
       </c>
       <c r="C61">
-        <v>36383.005305658851</v>
+        <v>30009.410221988699</v>
       </c>
       <c r="D61">
-        <v>3000</v>
+        <v>3025.2719999999999</v>
       </c>
       <c r="E61">
-        <v>16.719073333333331</v>
+        <v>15.08202237683091</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>49444.160000000003</v>
+        <v>43584.78</v>
       </c>
       <c r="C62">
-        <v>37185.975381780692</v>
+        <v>25884.817263245259</v>
       </c>
       <c r="D62">
-        <v>3007.511</v>
+        <v>2878.223</v>
       </c>
       <c r="E62">
-        <v>16.440225821285441</v>
+        <v>15.14294757563955</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>46890.58</v>
+        <v>46149.32</v>
       </c>
       <c r="C63">
-        <v>31893.979200839771</v>
+        <v>31601.34279959635</v>
       </c>
       <c r="D63">
-        <v>3000.4749999999999</v>
+        <v>2998.1570000000002</v>
       </c>
       <c r="E63">
-        <v>15.627718944500449</v>
+        <v>15.392562831099241</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B64">
-        <v>49851.86</v>
+        <v>47617.14</v>
       </c>
       <c r="C64">
-        <v>37554.834348461707</v>
+        <v>33026.790001760703</v>
       </c>
       <c r="D64">
-        <v>3001.819</v>
+        <v>3052.9560000000001</v>
       </c>
       <c r="E64">
-        <v>16.607217157330268</v>
+        <v>15.59706068479205</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65">
-        <v>48883.56</v>
+        <v>46890.58</v>
       </c>
       <c r="C65">
-        <v>39185.015515199171</v>
+        <v>31893.979200839771</v>
       </c>
       <c r="D65">
-        <v>3000</v>
+        <v>3000.4749999999999</v>
       </c>
       <c r="E65">
-        <v>16.294519999999999</v>
+        <v>15.627718944500449</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>23401.38</v>
+        <v>47075.1</v>
       </c>
       <c r="C66">
-        <v>7626.6118883551426</v>
+        <v>30361.367683126529</v>
       </c>
       <c r="D66">
-        <v>1820.8420000000001</v>
+        <v>3000</v>
       </c>
       <c r="E66">
-        <v>12.85195530419443</v>
+        <v>15.691700000000001</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>30994.14</v>
+        <v>47345.52</v>
       </c>
       <c r="C67">
-        <v>10875.118963045879</v>
+        <v>33180.929967823387</v>
       </c>
       <c r="D67">
-        <v>2240.2959999999998</v>
+        <v>3001.779</v>
       </c>
       <c r="E67">
-        <v>13.83484146737753</v>
+        <v>15.77248691525925</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B68">
-        <v>42954.3</v>
+        <v>47835.44</v>
       </c>
       <c r="C68">
-        <v>23642.858810008569</v>
+        <v>35664.670978524387</v>
       </c>
       <c r="D68">
-        <v>2863.556</v>
+        <v>3022.989</v>
       </c>
       <c r="E68">
-        <v>15.00033524750345</v>
+        <v>15.82388821130345</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B69">
-        <v>43584.78</v>
+        <v>39402.339999999997</v>
       </c>
       <c r="C69">
-        <v>25884.817263245259</v>
+        <v>27509.976876115328</v>
       </c>
       <c r="D69">
-        <v>2878.223</v>
+        <v>2447.4540000000002</v>
       </c>
       <c r="E69">
-        <v>15.14294757563955</v>
+        <v>16.099317903421269</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B70">
-        <v>45627.22</v>
+        <v>48412.84</v>
       </c>
       <c r="C70">
-        <v>30009.410221988699</v>
+        <v>33676.08041228076</v>
       </c>
       <c r="D70">
-        <v>3025.2719999999999</v>
+        <v>3000</v>
       </c>
       <c r="E70">
-        <v>15.08202237683091</v>
+        <v>16.137613333333331</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B71">
-        <v>46149.32</v>
+        <v>48512.959999999999</v>
       </c>
       <c r="C71">
-        <v>31601.34279959635</v>
+        <v>35953.313939585598</v>
       </c>
       <c r="D71">
-        <v>2998.1570000000002</v>
+        <v>3000</v>
       </c>
       <c r="E71">
-        <v>15.392562831099241</v>
+        <v>16.170986666666671</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B72">
-        <v>47345.52</v>
+        <v>48789.68</v>
       </c>
       <c r="C72">
-        <v>33180.929967823387</v>
+        <v>35555.10078592944</v>
       </c>
       <c r="D72">
-        <v>3001.779</v>
+        <v>3005.43</v>
       </c>
       <c r="E72">
-        <v>15.77248691525925</v>
+        <v>16.233843410094401</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B73">
-        <v>47075.1</v>
+        <v>48883.56</v>
       </c>
       <c r="C73">
-        <v>30361.367683126529</v>
+        <v>39185.015515199171</v>
       </c>
       <c r="D73">
         <v>3000</v>
       </c>
       <c r="E73">
-        <v>15.691700000000001</v>
+        <v>16.294519999999999</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B74">
-        <v>38155.06</v>
+        <v>49678.1</v>
       </c>
       <c r="C74">
-        <v>22139.154093966641</v>
+        <v>37155.906878853057</v>
       </c>
       <c r="D74">
-        <v>3044.3490000000002</v>
+        <v>3035.8150000000001</v>
       </c>
       <c r="E74">
-        <v>12.533076858139459</v>
+        <v>16.364007688215519</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B75">
-        <v>40428.5</v>
+        <v>49242.7</v>
       </c>
       <c r="C75">
-        <v>24943.96326468591</v>
+        <v>36479.613434218292</v>
       </c>
       <c r="D75">
-        <v>3004.6779999999999</v>
+        <v>3005.57</v>
       </c>
       <c r="E75">
-        <v>13.455185547336519</v>
+        <v>16.383814051910289</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B76">
-        <v>39356</v>
+        <v>49257.64</v>
       </c>
       <c r="C76">
-        <v>23570.099753713392</v>
+        <v>36352.320388530898</v>
       </c>
       <c r="D76">
-        <v>3005.2510000000002</v>
+        <v>3000.8159999999998</v>
       </c>
       <c r="E76">
-        <v>13.09574474810923</v>
+        <v>16.414748521735419</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B77">
-        <v>38943.360000000001</v>
+        <v>49444.160000000003</v>
       </c>
       <c r="C77">
-        <v>22314.27304463222</v>
+        <v>37185.975381780692</v>
       </c>
       <c r="D77">
-        <v>3000</v>
+        <v>3007.511</v>
       </c>
       <c r="E77">
-        <v>12.981120000000001</v>
+        <v>16.440225821285441</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B78">
-        <v>37814.92</v>
+        <v>49489.14</v>
       </c>
       <c r="C78">
-        <v>21712.040617906001</v>
+        <v>37852.184497864837</v>
       </c>
       <c r="D78">
-        <v>3007.752</v>
+        <v>3001.6779999999999</v>
       </c>
       <c r="E78">
-        <v>12.57248602943328</v>
+        <v>16.48715818285639</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B79">
-        <v>39398.480000000003</v>
+        <v>49851.86</v>
       </c>
       <c r="C79">
-        <v>23086.08796850605</v>
+        <v>37554.834348461707</v>
       </c>
       <c r="D79">
-        <v>3000.4630000000002</v>
+        <v>3001.819</v>
       </c>
       <c r="E79">
-        <v>13.130800146510721</v>
+        <v>16.607217157330268</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B80">
-        <v>38137.440000000002</v>
+        <v>49837.279999999999</v>
       </c>
       <c r="C80">
-        <v>21638.865863219351</v>
+        <v>38108.416737009677</v>
       </c>
       <c r="D80">
-        <v>3001.7829999999999</v>
+        <v>3000</v>
       </c>
       <c r="E80">
-        <v>12.704929037175569</v>
+        <v>16.612426666666671</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B81">
-        <v>39316.46</v>
+        <v>50157.22</v>
       </c>
       <c r="C81">
-        <v>23736.749227061398</v>
+        <v>36383.005305658851</v>
       </c>
       <c r="D81">
         <v>3000</v>
       </c>
       <c r="E81">
-        <v>13.105486666666669</v>
+        <v>16.719073333333331</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B82">
-        <v>36959.4</v>
+        <v>50336.68</v>
       </c>
       <c r="C82">
-        <v>17119.102068741809</v>
+        <v>37690.563160791316</v>
       </c>
       <c r="D82">
-        <v>3053.35</v>
+        <v>3007.7080000000001</v>
       </c>
       <c r="E82">
-        <v>12.10454091407798</v>
+        <v>16.73589324495596</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B83">
-        <v>37541.26</v>
+        <v>50309.04</v>
       </c>
       <c r="C83">
-        <v>18260.538426136289</v>
+        <v>37711.550398762447</v>
       </c>
       <c r="D83">
-        <v>2995.5639999999999</v>
+        <v>3002.88</v>
       </c>
       <c r="E83">
-        <v>12.53228440453951</v>
+        <v>16.753596547314579</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B84">
-        <v>37072.68</v>
+        <v>50401.88</v>
       </c>
       <c r="C84">
-        <v>17280.195948472341</v>
+        <v>35580.385018512658</v>
       </c>
       <c r="D84">
-        <v>3007.3919999999998</v>
+        <v>3001.76</v>
       </c>
       <c r="E84">
-        <v>12.327185814153919</v>
+        <v>16.79077607803422</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B85">
-        <v>37833.980000000003</v>
+        <v>46889.440000000002</v>
       </c>
       <c r="C85">
-        <v>18112.864316821899</v>
+        <v>33213.28738451525</v>
       </c>
       <c r="D85">
-        <v>3000</v>
+        <v>2784.4270000000001</v>
       </c>
       <c r="E85">
-        <v>12.61132666666667</v>
+        <v>16.83988842228581</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B86">
-        <v>38126.160000000003</v>
+        <v>50720.56</v>
       </c>
       <c r="C86">
-        <v>18145.87057306428</v>
+        <v>36674.316916425312</v>
       </c>
       <c r="D86">
-        <v>3011.8159999999998</v>
+        <v>3010.556</v>
       </c>
       <c r="E86">
-        <v>12.658860966274171</v>
+        <v>16.847572342118859</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B87">
-        <v>37178.519999999997</v>
+        <v>50923.32</v>
       </c>
       <c r="C87">
-        <v>18042.292853448529</v>
+        <v>37245.222300015877</v>
       </c>
       <c r="D87">
-        <v>3000.88</v>
+        <v>3004.0839999999998</v>
       </c>
       <c r="E87">
-        <v>12.38920583295566</v>
+        <v>16.951363543762429</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="B88">
-        <v>38181.480000000003</v>
+        <v>18016.02</v>
       </c>
       <c r="C88">
-        <v>17509.646604360689</v>
+        <v>5934.8461614097459</v>
       </c>
       <c r="D88">
-        <v>3001.8980000000001</v>
+        <v>1061.9570000000001</v>
       </c>
       <c r="E88">
-        <v>12.719113041149299</v>
+        <v>16.96492419184581</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B89">
-        <v>37434.74</v>
+        <v>51241.56</v>
       </c>
       <c r="C89">
-        <v>17164.65158202752</v>
+        <v>37766.271629145493</v>
       </c>
       <c r="D89">
-        <v>3000</v>
+        <v>3001.9209999999998</v>
       </c>
       <c r="E89">
-        <v>12.478246666666671</v>
+        <v>17.069589772682221</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="B90">
-        <v>36759.519999999997</v>
+        <v>51303.58</v>
       </c>
       <c r="C90">
-        <v>17940.115467008571</v>
+        <v>37611.904205764433</v>
       </c>
       <c r="D90">
-        <v>3023.2269999999999</v>
+        <v>3000</v>
       </c>
       <c r="E90">
-        <v>12.159034038793649</v>
+        <v>17.101193333333331</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="B91">
-        <v>36192.879999999997</v>
+        <v>51387.86</v>
       </c>
       <c r="C91">
-        <v>17618.309081906809</v>
+        <v>39144.108841821908</v>
       </c>
       <c r="D91">
-        <v>3001.79</v>
+        <v>3002.7280000000001</v>
       </c>
       <c r="E91">
-        <v>12.05709926410575</v>
+        <v>17.113724586442729</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B92">
-        <v>36536.9</v>
+        <v>51601.06</v>
       </c>
       <c r="C92">
-        <v>16911.410218843372</v>
+        <v>38158.170386909267</v>
       </c>
       <c r="D92">
-        <v>3002.83</v>
+        <v>3000.48</v>
       </c>
       <c r="E92">
-        <v>12.167488669022219</v>
+        <v>17.1976017170586</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="B93">
-        <v>37318.28</v>
+        <v>52765.56</v>
       </c>
       <c r="C93">
-        <v>19084.806989896439</v>
+        <v>39295.403704331628</v>
       </c>
       <c r="D93">
         <v>3000</v>
       </c>
       <c r="E93">
-        <v>12.43942666666667</v>
+        <v>17.588519999999999</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="B94">
-        <v>36411.919999999998</v>
+        <v>53960.959999999999</v>
       </c>
       <c r="C94">
-        <v>16904.596591270671</v>
+        <v>39799.105294948531</v>
       </c>
       <c r="D94">
-        <v>3007.9670000000001</v>
+        <v>3012.7060000000001</v>
       </c>
       <c r="E94">
-        <v>12.10515939835776</v>
+        <v>17.911127073136239</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="B95">
-        <v>36650.78</v>
+        <v>53986.6</v>
       </c>
       <c r="C95">
-        <v>18136.474061724341</v>
+        <v>38416.633549024053</v>
       </c>
       <c r="D95">
-        <v>3000.49</v>
+        <v>3001.7959999999998</v>
       </c>
       <c r="E95">
-        <v>12.214931561178339</v>
+        <v>17.984766453150051</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="B96">
-        <v>36557.9</v>
+        <v>54585.120000000003</v>
       </c>
       <c r="C96">
-        <v>17532.05596585865</v>
+        <v>43509.996481103051</v>
       </c>
       <c r="D96">
-        <v>3001.902</v>
+        <v>3023.152</v>
       </c>
       <c r="E96">
-        <v>12.178245658918909</v>
+        <v>18.055698158742931</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B97">
-        <v>36911.760000000002</v>
+        <v>54216.62</v>
       </c>
       <c r="C97">
-        <v>18440.89412426632</v>
+        <v>39573.552251163906</v>
       </c>
       <c r="D97">
-        <v>3000</v>
+        <v>2994.1089999999999</v>
       </c>
       <c r="E97">
-        <v>12.30392</v>
+        <v>18.10776427979075</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="B98">
-        <v>32903.919999999998</v>
+        <v>54401.24</v>
       </c>
       <c r="C98">
-        <v>11771.22888374871</v>
+        <v>40947.128329864601</v>
       </c>
       <c r="D98">
-        <v>2764.056</v>
+        <v>3002.0329999999999</v>
       </c>
       <c r="E98">
-        <v>11.90421612297291</v>
+        <v>18.121466352968142</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="B99">
-        <v>36065.599999999999</v>
+        <v>56051.94</v>
       </c>
       <c r="C99">
-        <v>12984.21631982462</v>
+        <v>51215.956000414561</v>
       </c>
       <c r="D99">
-        <v>2912.5439999999999</v>
+        <v>3007.2489999999998</v>
       </c>
       <c r="E99">
-        <v>12.38285155520397</v>
+        <v>18.638942102898699</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="B100">
-        <v>38193.5</v>
+        <v>56017.84</v>
       </c>
       <c r="C100">
-        <v>15138.10211849557</v>
+        <v>49653.720031175922</v>
       </c>
       <c r="D100">
-        <v>3010.8620000000001</v>
+        <v>3000.5010000000002</v>
       </c>
       <c r="E100">
-        <v>12.685237649550199</v>
+        <v>18.669495527580221</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="B101">
-        <v>38720.699999999997</v>
+        <v>56571.08</v>
       </c>
       <c r="C101">
-        <v>14469.51628458947</v>
+        <v>51979.224607852702</v>
       </c>
       <c r="D101">
         <v>3000</v>
       </c>
       <c r="E101">
-        <v>12.9069</v>
+        <v>18.85702666666667</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B102">
-        <v>38838.800000000003</v>
+        <v>56646.02</v>
       </c>
       <c r="C102">
-        <v>14681.82634960651</v>
+        <v>50829.893631204854</v>
       </c>
       <c r="D102">
-        <v>3019.7849999999999</v>
+        <v>3000</v>
       </c>
       <c r="E102">
-        <v>12.86144543402925</v>
+        <v>18.882006666666669</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="B103">
-        <v>38776.639999999999</v>
+        <v>56795.1</v>
       </c>
       <c r="C103">
-        <v>14938.185643189739</v>
+        <v>47553.347646511698</v>
       </c>
       <c r="D103">
-        <v>3001.5819999999999</v>
+        <v>3001.8090000000002</v>
       </c>
       <c r="E103">
-        <v>12.91873418750512</v>
+        <v>18.920291064488111</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B104">
-        <v>38063.440000000002</v>
+        <v>56906.52</v>
       </c>
       <c r="C104">
-        <v>14270.52355614187</v>
+        <v>48666.359016158167</v>
       </c>
       <c r="D104">
-        <v>3001.8609999999999</v>
+        <v>3002.9740000000002</v>
       </c>
       <c r="E104">
-        <v>12.67994753920985</v>
+        <v>18.950054179623269</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="B105">
-        <v>38054.620000000003</v>
+        <v>55247.14</v>
       </c>
       <c r="C105">
-        <v>14755.71242114728</v>
+        <v>46243.052120512111</v>
       </c>
       <c r="D105">
-        <v>3000</v>
+        <v>2861.6689999999999</v>
       </c>
       <c r="E105">
-        <v>12.68487333333333</v>
+        <v>19.305915533906958</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="B106">
-        <v>35671.440000000002</v>
+        <v>58544.9</v>
       </c>
       <c r="C106">
-        <v>11788.632809889359</v>
+        <v>54868.388286790418</v>
       </c>
       <c r="D106">
-        <v>3030.9540000000002</v>
+        <v>3022.34</v>
       </c>
       <c r="E106">
-        <v>11.769046973329189</v>
+        <v>19.370719376377249</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B107">
-        <v>34549.94</v>
+        <v>58909.8</v>
       </c>
       <c r="C107">
-        <v>11956.176646252759</v>
+        <v>49524.512596894892</v>
       </c>
       <c r="D107">
-        <v>3002.3380000000002</v>
+        <v>3001.8870000000002</v>
       </c>
       <c r="E107">
-        <v>11.50767834933975</v>
+        <v>19.6242563427604</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="B108">
-        <v>35750.839999999997</v>
+        <v>59586.62</v>
       </c>
       <c r="C108">
-        <v>12691.86694282602</v>
+        <v>53763.929311161774</v>
       </c>
       <c r="D108">
-        <v>3003.5940000000001</v>
+        <v>3016.3020000000001</v>
       </c>
       <c r="E108">
-        <v>11.90268724734435</v>
+        <v>19.75485876414232</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="B109">
-        <v>35085.26</v>
+        <v>58453.38</v>
       </c>
       <c r="C109">
-        <v>11691.137221519561</v>
+        <v>51767.543783490437</v>
       </c>
       <c r="D109">
-        <v>3000</v>
+        <v>2956.1590000000001</v>
       </c>
       <c r="E109">
-        <v>11.69508666666667</v>
+        <v>19.773422200903269</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="B110">
-        <v>35486.92</v>
+        <v>59780.959999999999</v>
       </c>
       <c r="C110">
-        <v>11791.46861563902</v>
+        <v>55904.937212006596</v>
       </c>
       <c r="D110">
-        <v>3007.4670000000001</v>
+        <v>3001.3150000000001</v>
       </c>
       <c r="E110">
-        <v>11.79960411868193</v>
+        <v>19.918255831193989</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="B111">
-        <v>35716.5</v>
+        <v>60138.8</v>
       </c>
       <c r="C111">
-        <v>12199.796627403261</v>
+        <v>53101.057731084788</v>
       </c>
       <c r="D111">
-        <v>3000.4789999999998</v>
+        <v>3001.8809999999999</v>
       </c>
       <c r="E111">
-        <v>11.90359939196375</v>
+        <v>20.03370553329729</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B112">
-        <v>35307.54</v>
+        <v>60213.72</v>
       </c>
       <c r="C112">
-        <v>11945.22054833648</v>
+        <v>54127.117682004828</v>
       </c>
       <c r="D112">
-        <v>3001.8209999999999</v>
+        <v>3000</v>
       </c>
       <c r="E112">
-        <v>11.76204044145204</v>
+        <v>20.07124</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="B113">
-        <v>35388.94</v>
+        <v>60794.9</v>
       </c>
       <c r="C113">
-        <v>11331.55317140594</v>
+        <v>54731.029378132473</v>
       </c>
       <c r="D113">
-        <v>3000</v>
+        <v>3011.8530000000001</v>
       </c>
       <c r="E113">
-        <v>11.79631333333333</v>
+        <v>20.18521488266526</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="B114">
-        <v>35423.599999999999</v>
+        <v>61137.24</v>
       </c>
       <c r="C114">
-        <v>11047.551757742531</v>
+        <v>59880.413769298561</v>
       </c>
       <c r="D114">
-        <v>3057.4969999999998</v>
+        <v>2997.52</v>
       </c>
       <c r="E114">
-        <v>11.585816764497229</v>
+        <v>20.395940644265931</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="B115">
-        <v>35536.06</v>
+        <v>58934.54</v>
       </c>
       <c r="C115">
-        <v>10991.869835310101</v>
+        <v>47174.244737869412</v>
       </c>
       <c r="D115">
-        <v>3005.3049999999998</v>
+        <v>2869.97</v>
       </c>
       <c r="E115">
-        <v>11.82444377525742</v>
+        <v>20.534897577326589</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="B116">
-        <v>36215.68</v>
+        <v>62649.52</v>
       </c>
       <c r="C116">
-        <v>11102.65235597332</v>
+        <v>60469.054331695967</v>
       </c>
       <c r="D116">
-        <v>3005.6410000000001</v>
+        <v>3000</v>
       </c>
       <c r="E116">
-        <v>12.04923675182765</v>
+        <v>20.883173333333328</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="B117">
-        <v>35503.1</v>
+        <v>62759.12</v>
       </c>
       <c r="C117">
-        <v>11334.09879919881</v>
+        <v>59640.92480189757</v>
       </c>
       <c r="D117">
         <v>3000</v>
       </c>
       <c r="E117">
-        <v>11.83436666666667</v>
+        <v>20.91970666666667</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="B118">
-        <v>35789.599999999999</v>
+        <v>62837.48</v>
       </c>
       <c r="C118">
-        <v>11207.1945035321</v>
+        <v>58686.431774726261</v>
       </c>
       <c r="D118">
-        <v>3010.31</v>
+        <v>3001.9259999999999</v>
       </c>
       <c r="E118">
-        <v>11.88900810879943</v>
+        <v>20.93238807352347</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="B119">
-        <v>35991.980000000003</v>
+        <v>62354.400000000001</v>
       </c>
       <c r="C119">
-        <v>11084.849159081959</v>
+        <v>56911.986068314312</v>
       </c>
       <c r="D119">
-        <v>3000.7739999999999</v>
+        <v>2956.9630000000002</v>
       </c>
       <c r="E119">
-        <v>11.99423215477074</v>
+        <v>21.087311542281721</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="B120">
-        <v>35771.56</v>
+        <v>63331.3</v>
       </c>
       <c r="C120">
-        <v>10902.756604015331</v>
+        <v>62671.799488366378</v>
       </c>
       <c r="D120">
-        <v>3001.835</v>
+        <v>3000.4349999999999</v>
       </c>
       <c r="E120">
-        <v>11.91656436812816</v>
+        <v>21.107372764282509</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="B121">
-        <v>35749.919999999998</v>
+        <v>63579.26</v>
       </c>
       <c r="C121">
-        <v>10995.86900584033</v>
+        <v>61480.022991638507</v>
       </c>
       <c r="D121">
-        <v>3000</v>
+        <v>2997.1</v>
       </c>
       <c r="E121">
-        <v>11.916639999999999</v>
+        <v>21.213593140035371</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="B122">
-        <v>35068.379999999997</v>
+        <v>64580.46</v>
       </c>
       <c r="C122">
-        <v>10718.810856415001</v>
+        <v>59039.913233239087</v>
       </c>
       <c r="D122">
-        <v>3022.9479999999999</v>
+        <v>3007.0410000000002</v>
       </c>
       <c r="E122">
-        <v>11.60072220891659</v>
+        <v>21.47641485433687</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B123">
-        <v>34625.300000000003</v>
+        <v>27668.34</v>
       </c>
       <c r="C123">
-        <v>10907.80067245455</v>
+        <v>11133.78561156986</v>
       </c>
       <c r="D123">
-        <v>3001.683</v>
+        <v>1202.9929999999999</v>
       </c>
       <c r="E123">
-        <v>11.535295365966361</v>
+        <v>22.999585201243899</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B124">
-        <v>34919.120000000003</v>
+        <v>55516.32</v>
       </c>
       <c r="C124">
-        <v>10596.68287841058</v>
+        <v>34940.669450621579</v>
       </c>
       <c r="D124">
-        <v>3002.9180000000001</v>
+        <v>2093.5450000000001</v>
       </c>
       <c r="E124">
-        <v>11.62839611338039</v>
+        <v>26.517853688361129</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="B125">
-        <v>35614.28</v>
+        <v>71532.42</v>
       </c>
       <c r="C125">
-        <v>10704.18774506501</v>
+        <v>52542.960165407509</v>
       </c>
       <c r="D125">
-        <v>3000</v>
+        <v>2641.9949999999999</v>
       </c>
       <c r="E125">
-        <v>11.87142666666667</v>
+        <v>27.075153435188181</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="B126">
-        <v>35122.26</v>
+        <v>79442.34</v>
       </c>
       <c r="C126">
-        <v>10851.66280771753</v>
+        <v>71678.037616304762</v>
       </c>
       <c r="D126">
-        <v>3007.2959999999998</v>
+        <v>2896.1109999999999</v>
       </c>
       <c r="E126">
-        <v>11.67901663155207</v>
+        <v>27.43069585385367</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="B127">
-        <v>34502.199999999997</v>
+        <v>55156.32</v>
       </c>
       <c r="C127">
-        <v>10765.96224960872</v>
+        <v>30340.317889857379</v>
       </c>
       <c r="D127">
-        <v>3000.5149999999999</v>
+        <v>1965.9259999999999</v>
       </c>
       <c r="E127">
-        <v>11.49875937963983</v>
+        <v>28.056152673091461</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="B128">
-        <v>35801.42</v>
+        <v>81340.240000000005</v>
       </c>
       <c r="C128">
-        <v>10329.92390986497</v>
+        <v>74042.384520910724</v>
       </c>
       <c r="D128">
-        <v>3001.8220000000001</v>
+        <v>2858.4760000000001</v>
       </c>
       <c r="E128">
-        <v>11.92656326724236</v>
+        <v>28.455806520677449</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="B129">
-        <v>34833.26</v>
+        <v>77903.679999999993</v>
       </c>
       <c r="C129">
-        <v>10669.013027098619</v>
+        <v>63837.059556793487</v>
       </c>
       <c r="D129">
-        <v>3000</v>
+        <v>2723.7240000000002</v>
       </c>
       <c r="E129">
-        <v>11.611086666666671</v>
+        <v>28.601899458241721</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E129">
+    <sortCondition ref="E1:E129"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
